--- a/experimenten jiswi/the one v4.xlsx
+++ b/experimenten jiswi/the one v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26/experimenten jiswi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_F25DC773A252ABDACC10487271D94BF05ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FE7D818-7D87-4E48-90E4-AAA7ACDA3F59}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC10487271D94BF05ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{386E7895-3C33-4B45-AB2D-C71ADFDD1033}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="115">
   <si>
     <t>LOADING CONDITION</t>
   </si>
@@ -370,6 +370,9 @@
   <si>
     <t>Deck is 7001 mm from WL</t>
   </si>
+  <si>
+    <t>Deck is 15001 mm from WL</t>
+  </si>
 </sst>
 </file>
 
@@ -8124,7 +8127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F760EA0-86CE-4FFB-816B-5A29C04D3EC5}">
   <dimension ref="A2:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -15566,12 +15569,7418 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABA9D0A-6401-4787-AF2F-978BCCEF2273}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:M302"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>39.398000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>18.998999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>156.83199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>127.325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>7.8419999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>86.257999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>20.076000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>96.036000000000001</v>
+      </c>
+      <c r="C18">
+        <v>8.8650000000000002</v>
+      </c>
+      <c r="D18">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>7173.1030000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>74897.298999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>62.491999999999997</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2.4430000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>60.634</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>11.263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>0.3548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>0.43709999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>2768.027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>59.883000000000003</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>175798.25700000001</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2345400</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2521200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>3029.1239999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>102.01600000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>4753.5600000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>133.80500000000001</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>13.343999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36">
+        <v>122.589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10.731</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>16.794</v>
+      </c>
+      <c r="B45">
+        <v>23.966000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>22.856999999999999</v>
+      </c>
+      <c r="B46">
+        <v>47.484999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>28.92</v>
+      </c>
+      <c r="B47">
+        <v>67.078999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>34.982999999999997</v>
+      </c>
+      <c r="B48">
+        <v>82.183000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>41.046999999999997</v>
+      </c>
+      <c r="B49">
+        <v>92.840999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>47.11</v>
+      </c>
+      <c r="B50">
+        <v>99.325999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>53.173000000000002</v>
+      </c>
+      <c r="B51">
+        <v>102.01600000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>59.235999999999997</v>
+      </c>
+      <c r="B52">
+        <v>101.35899999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>65.299000000000007</v>
+      </c>
+      <c r="B53">
+        <v>97.872</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>71.361999999999995</v>
+      </c>
+      <c r="B54">
+        <v>92.171999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>77.424999999999997</v>
+      </c>
+      <c r="B55">
+        <v>84.441999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>83.488</v>
+      </c>
+      <c r="B56">
+        <v>74.221000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>89.551000000000002</v>
+      </c>
+      <c r="B57">
+        <v>61.204999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>95.614000000000004</v>
+      </c>
+      <c r="B58">
+        <v>46.598999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>101.67700000000001</v>
+      </c>
+      <c r="B59">
+        <v>34.451999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>107.74</v>
+      </c>
+      <c r="B60">
+        <v>26.466000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>113.803</v>
+      </c>
+      <c r="B61">
+        <v>20.375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>119.867</v>
+      </c>
+      <c r="B62">
+        <v>14.752000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>125.93</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>131.99299999999999</v>
+      </c>
+      <c r="B64">
+        <v>3.5390000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>138.05600000000001</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-10.010999999999999</v>
+      </c>
+      <c r="B69">
+        <v>221.179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-1.915</v>
+      </c>
+      <c r="B70">
+        <v>348.32499999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>6.18</v>
+      </c>
+      <c r="B71">
+        <v>449.20800000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>14.275</v>
+      </c>
+      <c r="B72">
+        <v>526.548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>22.37</v>
+      </c>
+      <c r="B73">
+        <v>583.82299999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>30.466000000000001</v>
+      </c>
+      <c r="B74">
+        <v>623.89700000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>38.561</v>
+      </c>
+      <c r="B75">
+        <v>649.08900000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>46.655999999999999</v>
+      </c>
+      <c r="B76">
+        <v>661.31200000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>54.750999999999998</v>
+      </c>
+      <c r="B77">
+        <v>662.16300000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>62.847000000000001</v>
+      </c>
+      <c r="B78">
+        <v>652.995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>70.941999999999993</v>
+      </c>
+      <c r="B79">
+        <v>634.93499999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79.037000000000006</v>
+      </c>
+      <c r="B80">
+        <v>607.16499999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>87.132000000000005</v>
+      </c>
+      <c r="B81">
+        <v>564.56200000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>95.227999999999994</v>
+      </c>
+      <c r="B82">
+        <v>502.54399999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>103.32299999999999</v>
+      </c>
+      <c r="B83">
+        <v>433.79500000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>111.41800000000001</v>
+      </c>
+      <c r="B84">
+        <v>370.60700000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>119.51300000000001</v>
+      </c>
+      <c r="B85">
+        <v>307.90300000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>127.608</v>
+      </c>
+      <c r="B86">
+        <v>242.173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>135.70400000000001</v>
+      </c>
+      <c r="B87">
+        <v>172.78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>143.79900000000001</v>
+      </c>
+      <c r="B88">
+        <v>100.56100000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>151.89400000000001</v>
+      </c>
+      <c r="B89">
+        <v>34.771999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>159.989</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>122.589</v>
+      </c>
+      <c r="B94">
+        <v>283.36200000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>131.93899999999999</v>
+      </c>
+      <c r="B95">
+        <v>205.49600000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>141.28899999999999</v>
+      </c>
+      <c r="B96">
+        <v>123.02500000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>150.63900000000001</v>
+      </c>
+      <c r="B97">
+        <v>43.680999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>159.989</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>57</v>
+      </c>
+      <c r="B101">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" t="s">
+        <v>65</v>
+      </c>
+      <c r="F102" t="s">
+        <v>66</v>
+      </c>
+      <c r="G102" t="s">
+        <v>67</v>
+      </c>
+      <c r="H102" t="s">
+        <v>68</v>
+      </c>
+      <c r="I102" t="s">
+        <v>69</v>
+      </c>
+      <c r="J102" t="s">
+        <v>70</v>
+      </c>
+      <c r="K102" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>-10.010999999999999</v>
+      </c>
+      <c r="B103">
+        <v>75.215000000000003</v>
+      </c>
+      <c r="C103">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D103">
+        <v>-10.010999999999999</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>15.750999999999999</v>
+      </c>
+      <c r="G103">
+        <v>9.1289999999999996</v>
+      </c>
+      <c r="H103">
+        <v>0.83</v>
+      </c>
+      <c r="I103">
+        <v>8.2989999999999995</v>
+      </c>
+      <c r="J103">
+        <v>11.634</v>
+      </c>
+      <c r="K103">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>-1.915</v>
+      </c>
+      <c r="B104">
+        <v>83.489000000000004</v>
+      </c>
+      <c r="C104">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D104">
+        <v>-1.915</v>
+      </c>
+      <c r="E104">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F104">
+        <v>14.115</v>
+      </c>
+      <c r="G104">
+        <v>12.757</v>
+      </c>
+      <c r="H104">
+        <v>2.032</v>
+      </c>
+      <c r="I104">
+        <v>10.725</v>
+      </c>
+      <c r="J104">
+        <v>7.61</v>
+      </c>
+      <c r="K104">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>6.18</v>
+      </c>
+      <c r="B105">
+        <v>90.703000000000003</v>
+      </c>
+      <c r="C105">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D105">
+        <v>6.18</v>
+      </c>
+      <c r="E105">
+        <v>-1E-3</v>
+      </c>
+      <c r="F105">
+        <v>12.956</v>
+      </c>
+      <c r="G105">
+        <v>16.484999999999999</v>
+      </c>
+      <c r="H105">
+        <v>3.254</v>
+      </c>
+      <c r="I105">
+        <v>13.23</v>
+      </c>
+      <c r="J105">
+        <v>5.0579999999999998</v>
+      </c>
+      <c r="K105">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>14.275</v>
+      </c>
+      <c r="B106">
+        <v>96.087999999999994</v>
+      </c>
+      <c r="C106">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D106">
+        <v>14.275</v>
+      </c>
+      <c r="E106">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="F106">
+        <v>12.138</v>
+      </c>
+      <c r="G106">
+        <v>19.677</v>
+      </c>
+      <c r="H106">
+        <v>4.3280000000000003</v>
+      </c>
+      <c r="I106">
+        <v>15.349</v>
+      </c>
+      <c r="J106">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="K106">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>22.37</v>
+      </c>
+      <c r="B107">
+        <v>99.930999999999997</v>
+      </c>
+      <c r="C107">
+        <v>0.1</v>
+      </c>
+      <c r="D107">
+        <v>22.37</v>
+      </c>
+      <c r="E107">
+        <v>-1E-3</v>
+      </c>
+      <c r="F107">
+        <v>11.555</v>
+      </c>
+      <c r="G107">
+        <v>22.206</v>
+      </c>
+      <c r="H107">
+        <v>5.202</v>
+      </c>
+      <c r="I107">
+        <v>17.003</v>
+      </c>
+      <c r="J107">
+        <v>2.08</v>
+      </c>
+      <c r="K107">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>30.466000000000001</v>
+      </c>
+      <c r="B108">
+        <v>102.52200000000001</v>
+      </c>
+      <c r="C108">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D108">
+        <v>30.466000000000001</v>
+      </c>
+      <c r="E108">
+        <v>2E-3</v>
+      </c>
+      <c r="F108">
+        <v>11.157999999999999</v>
+      </c>
+      <c r="G108">
+        <v>24.042999999999999</v>
+      </c>
+      <c r="H108">
+        <v>5.8609999999999998</v>
+      </c>
+      <c r="I108">
+        <v>18.183</v>
+      </c>
+      <c r="J108">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="K108">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>38.561</v>
+      </c>
+      <c r="B109">
+        <v>104.07599999999999</v>
+      </c>
+      <c r="C109">
+        <v>0.104</v>
+      </c>
+      <c r="D109">
+        <v>38.561</v>
+      </c>
+      <c r="E109">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F109">
+        <v>10.913</v>
+      </c>
+      <c r="G109">
+        <v>25.181000000000001</v>
+      </c>
+      <c r="H109">
+        <v>6.3</v>
+      </c>
+      <c r="I109">
+        <v>18.882000000000001</v>
+      </c>
+      <c r="J109">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="K109">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>46.655999999999999</v>
+      </c>
+      <c r="B110">
+        <v>104.751</v>
+      </c>
+      <c r="C110">
+        <v>0.105</v>
+      </c>
+      <c r="D110">
+        <v>46.655999999999999</v>
+      </c>
+      <c r="E110">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F110">
+        <v>10.781000000000001</v>
+      </c>
+      <c r="G110">
+        <v>25.696999999999999</v>
+      </c>
+      <c r="H110">
+        <v>6.5469999999999997</v>
+      </c>
+      <c r="I110">
+        <v>19.149000000000001</v>
+      </c>
+      <c r="J110">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="K110">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>54.750999999999998</v>
+      </c>
+      <c r="B111">
+        <v>104.66200000000001</v>
+      </c>
+      <c r="C111">
+        <v>0.105</v>
+      </c>
+      <c r="D111">
+        <v>54.750999999999998</v>
+      </c>
+      <c r="E111">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F111">
+        <v>10.754</v>
+      </c>
+      <c r="G111">
+        <v>25.637</v>
+      </c>
+      <c r="H111">
+        <v>6.6180000000000003</v>
+      </c>
+      <c r="I111">
+        <v>19.018999999999998</v>
+      </c>
+      <c r="J111">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="K111">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>62.847000000000001</v>
+      </c>
+      <c r="B112">
+        <v>103.899</v>
+      </c>
+      <c r="C112">
+        <v>0.104</v>
+      </c>
+      <c r="D112">
+        <v>62.847000000000001</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>10.824999999999999</v>
+      </c>
+      <c r="G112">
+        <v>25.071000000000002</v>
+      </c>
+      <c r="H112">
+        <v>6.5279999999999996</v>
+      </c>
+      <c r="I112">
+        <v>18.542999999999999</v>
+      </c>
+      <c r="J112">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K112">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>70.941999999999993</v>
+      </c>
+      <c r="B113">
+        <v>102.532</v>
+      </c>
+      <c r="C113">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D113">
+        <v>70.941999999999993</v>
+      </c>
+      <c r="E113">
+        <v>1E-3</v>
+      </c>
+      <c r="F113">
+        <v>10.968999999999999</v>
+      </c>
+      <c r="G113">
+        <v>24.094000000000001</v>
+      </c>
+      <c r="H113">
+        <v>6.3230000000000004</v>
+      </c>
+      <c r="I113">
+        <v>17.771000000000001</v>
+      </c>
+      <c r="J113">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K113">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>79.037000000000006</v>
+      </c>
+      <c r="B114">
+        <v>100.518</v>
+      </c>
+      <c r="C114">
+        <v>0.1</v>
+      </c>
+      <c r="D114">
+        <v>79.037000000000006</v>
+      </c>
+      <c r="E114">
+        <v>-1E-3</v>
+      </c>
+      <c r="F114">
+        <v>11.212</v>
+      </c>
+      <c r="G114">
+        <v>22.654</v>
+      </c>
+      <c r="H114">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="I114">
+        <v>16.661999999999999</v>
+      </c>
+      <c r="J114">
+        <v>0.12</v>
+      </c>
+      <c r="K114">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>87.132000000000005</v>
+      </c>
+      <c r="B115">
+        <v>97.531000000000006</v>
+      </c>
+      <c r="C115">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D115">
+        <v>87.132000000000005</v>
+      </c>
+      <c r="E115">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F115">
+        <v>11.571999999999999</v>
+      </c>
+      <c r="G115">
+        <v>20.581</v>
+      </c>
+      <c r="H115">
+        <v>5.4850000000000003</v>
+      </c>
+      <c r="I115">
+        <v>15.095000000000001</v>
+      </c>
+      <c r="J115">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="K115">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>95.227999999999994</v>
+      </c>
+      <c r="B116">
+        <v>93.105999999999995</v>
+      </c>
+      <c r="C116">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D116">
+        <v>95.227999999999994</v>
+      </c>
+      <c r="E116">
+        <v>-1E-3</v>
+      </c>
+      <c r="F116">
+        <v>12.026999999999999</v>
+      </c>
+      <c r="G116">
+        <v>17.667999999999999</v>
+      </c>
+      <c r="H116">
+        <v>4.7590000000000003</v>
+      </c>
+      <c r="I116">
+        <v>12.909000000000001</v>
+      </c>
+      <c r="J116">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="K116">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>103.32299999999999</v>
+      </c>
+      <c r="B117">
+        <v>87.38</v>
+      </c>
+      <c r="C117">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D117">
+        <v>103.32299999999999</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>12.351000000000001</v>
+      </c>
+      <c r="G117">
+        <v>14.260999999999999</v>
+      </c>
+      <c r="H117">
+        <v>4.0540000000000003</v>
+      </c>
+      <c r="I117">
+        <v>10.207000000000001</v>
+      </c>
+      <c r="J117">
+        <v>0.15</v>
+      </c>
+      <c r="K117">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>111.41800000000001</v>
+      </c>
+      <c r="B118">
+        <v>80.843000000000004</v>
+      </c>
+      <c r="C118">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D118">
+        <v>111.41800000000001</v>
+      </c>
+      <c r="E118">
+        <v>-1E-3</v>
+      </c>
+      <c r="F118">
+        <v>12.465</v>
+      </c>
+      <c r="G118">
+        <v>11.041</v>
+      </c>
+      <c r="H118">
+        <v>3.5329999999999999</v>
+      </c>
+      <c r="I118">
+        <v>7.508</v>
+      </c>
+      <c r="J118">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K118">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>119.51300000000001</v>
+      </c>
+      <c r="B119">
+        <v>73.8</v>
+      </c>
+      <c r="C119">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D119">
+        <v>119.51300000000001</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>12.516999999999999</v>
+      </c>
+      <c r="G119">
+        <v>8.2119999999999997</v>
+      </c>
+      <c r="H119">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="I119">
+        <v>5.1509999999999998</v>
+      </c>
+      <c r="J119">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K119">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>127.608</v>
+      </c>
+      <c r="B120">
+        <v>65.230999999999995</v>
+      </c>
+      <c r="C120">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D120">
+        <v>127.608</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>12.782</v>
+      </c>
+      <c r="G120">
+        <v>5.6340000000000003</v>
+      </c>
+      <c r="H120">
+        <v>2.4089999999999998</v>
+      </c>
+      <c r="I120">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="J120">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="K120">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>135.70400000000001</v>
+      </c>
+      <c r="B121">
+        <v>54.816000000000003</v>
+      </c>
+      <c r="C121">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D121">
+        <v>135.70400000000001</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>13.391999999999999</v>
+      </c>
+      <c r="G121">
+        <v>3.355</v>
+      </c>
+      <c r="H121">
+        <v>1.605</v>
+      </c>
+      <c r="I121">
+        <v>1.75</v>
+      </c>
+      <c r="J121">
+        <v>3.1970000000000001</v>
+      </c>
+      <c r="K121">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>143.79900000000001</v>
+      </c>
+      <c r="B122">
+        <v>41.88</v>
+      </c>
+      <c r="C122">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D122">
+        <v>143.79900000000001</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>14.523999999999999</v>
+      </c>
+      <c r="G122">
+        <v>1.494</v>
+      </c>
+      <c r="H122">
+        <v>0.77</v>
+      </c>
+      <c r="I122">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="J122">
+        <v>6.5679999999999996</v>
+      </c>
+      <c r="K122">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>151.89400000000001</v>
+      </c>
+      <c r="B123">
+        <v>24.617999999999999</v>
+      </c>
+      <c r="C123">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D123">
+        <v>151.89400000000001</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>16.5</v>
+      </c>
+      <c r="G123">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H123">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I123">
+        <v>0.157</v>
+      </c>
+      <c r="J123">
+        <v>12.010999999999999</v>
+      </c>
+      <c r="K123">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>159.989</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>159.989</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>18.998999999999999</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>72</v>
+      </c>
+      <c r="B126">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>73</v>
+      </c>
+      <c r="B127">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>74</v>
+      </c>
+      <c r="B128">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>75</v>
+      </c>
+      <c r="B129">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>77</v>
+      </c>
+      <c r="B131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132">
+        <v>78416.114000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>79</v>
+      </c>
+      <c r="B133">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>80</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>81</v>
+      </c>
+      <c r="B136">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>82</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>34</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>83</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>84</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>85</v>
+      </c>
+      <c r="B141">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>86</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>87</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>88</v>
+      </c>
+      <c r="B144">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>89</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>90</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>91</v>
+      </c>
+      <c r="B152" t="s">
+        <v>92</v>
+      </c>
+      <c r="C152" t="s">
+        <v>93</v>
+      </c>
+      <c r="D152" t="s">
+        <v>94</v>
+      </c>
+      <c r="E152" t="s">
+        <v>95</v>
+      </c>
+      <c r="F152" t="s">
+        <v>96</v>
+      </c>
+      <c r="G152" t="s">
+        <v>97</v>
+      </c>
+      <c r="H152" t="s">
+        <v>98</v>
+      </c>
+      <c r="I152" t="s">
+        <v>99</v>
+      </c>
+      <c r="J152" t="s">
+        <v>100</v>
+      </c>
+      <c r="K152" t="s">
+        <v>101</v>
+      </c>
+      <c r="L152" t="s">
+        <v>102</v>
+      </c>
+      <c r="M152" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>19</v>
+      </c>
+      <c r="B153">
+        <v>9.7744444444444394</v>
+      </c>
+      <c r="C153">
+        <v>0.27656757270456001</v>
+      </c>
+      <c r="D153">
+        <v>438183.24412196199</v>
+      </c>
+      <c r="E153">
+        <v>275863.29459851602</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>92618.255819156999</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>69701.693704289297</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0.148403877527227</v>
+      </c>
+      <c r="M153">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>57</v>
+      </c>
+      <c r="B155">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>91</v>
+      </c>
+      <c r="B156" t="s">
+        <v>92</v>
+      </c>
+      <c r="C156" t="s">
+        <v>93</v>
+      </c>
+      <c r="D156" t="s">
+        <v>94</v>
+      </c>
+      <c r="E156" t="s">
+        <v>95</v>
+      </c>
+      <c r="F156" t="s">
+        <v>96</v>
+      </c>
+      <c r="G156" t="s">
+        <v>97</v>
+      </c>
+      <c r="H156" t="s">
+        <v>98</v>
+      </c>
+      <c r="I156" t="s">
+        <v>99</v>
+      </c>
+      <c r="J156" t="s">
+        <v>100</v>
+      </c>
+      <c r="K156" t="s">
+        <v>101</v>
+      </c>
+      <c r="L156" t="s">
+        <v>102</v>
+      </c>
+      <c r="M156" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157">
+        <v>3.0866666666666598</v>
+      </c>
+      <c r="C157">
+        <v>8.7337128222492802E-2</v>
+      </c>
+      <c r="D157">
+        <v>38849.279330536301</v>
+      </c>
+      <c r="E157">
+        <v>31898.404751506801</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>1.31569950344322E-2</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>6950.8614220343898</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0.154652385166231</v>
+      </c>
+      <c r="M157">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>6.0999999999999899</v>
+      </c>
+      <c r="B158">
+        <v>3.13811111111111</v>
+      </c>
+      <c r="C158">
+        <v>8.8792747026201005E-2</v>
+      </c>
+      <c r="D158">
+        <v>40082.539352171203</v>
+      </c>
+      <c r="E158">
+        <v>32898.032912187897</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>1.8842374948178E-2</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>7184.4875976083304</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0.15455199875897899</v>
+      </c>
+      <c r="M158">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>6.2</v>
+      </c>
+      <c r="B159">
+        <v>3.1895555555555499</v>
+      </c>
+      <c r="C159">
+        <v>9.0248365829909194E-2</v>
+      </c>
+      <c r="D159">
+        <v>41334.049524312097</v>
+      </c>
+      <c r="E159">
+        <v>33912.047472550301</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>2.6688900618011501E-2</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>7421.9753628611697</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0.154453583206557</v>
+      </c>
+      <c r="M159">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>6.2999999999999901</v>
+      </c>
+      <c r="B160">
+        <v>3.2410000000000001</v>
+      </c>
+      <c r="C160">
+        <v>9.1703984633617397E-2</v>
+      </c>
+      <c r="D160">
+        <v>42603.782766964898</v>
+      </c>
+      <c r="E160">
+        <v>34940.4206413668</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>3.7407805100841997E-2</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>7663.3247177929197</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0.154357068567682</v>
+      </c>
+      <c r="M160">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>6.4</v>
+      </c>
+      <c r="B161">
+        <v>3.2924444444444401</v>
+      </c>
+      <c r="C161">
+        <v>9.31596034373256E-2</v>
+      </c>
+      <c r="D161">
+        <v>43891.712720845397</v>
+      </c>
+      <c r="E161">
+        <v>35983.125150092899</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>5.1908348945913202E-2</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>7908.5356624035803</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0.15426238845169599</v>
+      </c>
+      <c r="M161">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>6.5</v>
+      </c>
+      <c r="B162">
+        <v>3.34388888888888</v>
+      </c>
+      <c r="C162">
+        <v>9.46152222410339E-2</v>
+      </c>
+      <c r="D162">
+        <v>45197.813774396498</v>
+      </c>
+      <c r="E162">
+        <v>37040.134234899902</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>7.1342803430864798E-2</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>8157.6081966931397</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0.15416947978586301</v>
+      </c>
+      <c r="M162">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>6.5999999999999899</v>
+      </c>
+      <c r="B163">
+        <v>3.3953333333333302</v>
+      </c>
+      <c r="C163">
+        <v>9.6070841044742006E-2</v>
+      </c>
+      <c r="D163">
+        <v>46522.061099498897</v>
+      </c>
+      <c r="E163">
+        <v>38111.421619596797</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>9.7159240394966206E-2</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>8410.5423206616106</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0.15407828260123901</v>
+      </c>
+      <c r="M163">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>6.7</v>
+      </c>
+      <c r="B164">
+        <v>3.4467777777777702</v>
+      </c>
+      <c r="C164">
+        <v>9.7526459848450306E-2</v>
+      </c>
+      <c r="D164">
+        <v>47864.430696706499</v>
+      </c>
+      <c r="E164">
+        <v>39196.961499382698</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0.13116301485652099</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>8667.3380343089993</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0.15398873983539499</v>
+      </c>
+      <c r="M164">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>6.7999999999999901</v>
+      </c>
+      <c r="B165">
+        <v>3.4982222222222199</v>
+      </c>
+      <c r="C165">
+        <v>9.8982078652158495E-2</v>
+      </c>
+      <c r="D165">
+        <v>49224.899450867299</v>
+      </c>
+      <c r="E165">
+        <v>40296.728525376799</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0.17558785523252901</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>8927.9953376352896</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0.153900797150408</v>
+      </c>
+      <c r="M165">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>6.9</v>
+      </c>
+      <c r="B166">
+        <v>3.5496666666666599</v>
+      </c>
+      <c r="C166">
+        <v>0.100437697455866</v>
+      </c>
+      <c r="D166">
+        <v>50603.445198016998</v>
+      </c>
+      <c r="E166">
+        <v>41410.697789880003</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0.23317749643907501</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>9192.5142306404905</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0.153814402764758</v>
+      </c>
+      <c r="M166">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167">
+        <v>3.60111111111111</v>
+      </c>
+      <c r="C167">
+        <v>0.101893316259574</v>
+      </c>
+      <c r="D167">
+        <v>52000.046804448401</v>
+      </c>
+      <c r="E167">
+        <v>42538.844812321098</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0.30727880275104602</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>9460.8947133245892</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0.153729507297866</v>
+      </c>
+      <c r="M167">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>7.0999999999999899</v>
+      </c>
+      <c r="B168">
+        <v>3.65255555555555</v>
+      </c>
+      <c r="C168">
+        <v>0.10334893506328301</v>
+      </c>
+      <c r="D168">
+        <v>53414.684258863999</v>
+      </c>
+      <c r="E168">
+        <v>43681.1455258469</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0.401947329496394</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>9733.1367856876004</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0.153646063626173</v>
+      </c>
+      <c r="M168">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>7.2</v>
+      </c>
+      <c r="B169">
+        <v>3.7040000000000002</v>
+      </c>
+      <c r="C169">
+        <v>0.104804553866991</v>
+      </c>
+      <c r="D169">
+        <v>54847.338778514102</v>
+      </c>
+      <c r="E169">
+        <v>44837.576264519499</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0.52206626506485099</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>10009.2404477295</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0.15356402674972999</v>
+      </c>
+      <c r="M169">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>7.2999999999999901</v>
+      </c>
+      <c r="B170">
+        <v>3.7554444444444401</v>
+      </c>
+      <c r="C170">
+        <v>0.106260172670699</v>
+      </c>
+      <c r="D170">
+        <v>56297.992930210203</v>
+      </c>
+      <c r="E170">
+        <v>46008.113751082703</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0.673479677095699</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>10289.2056994503</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0.15348335366842</v>
+      </c>
+      <c r="M170">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>7.4</v>
+      </c>
+      <c r="B171">
+        <v>3.8068888888888801</v>
+      </c>
+      <c r="C171">
+        <v>0.107715791474407</v>
+      </c>
+      <c r="D171">
+        <v>57766.630767075898</v>
+      </c>
+      <c r="E171">
+        <v>47192.735085266802</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0.86314095900638999</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>10573.032540850099</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0.153404003266981</v>
+      </c>
+      <c r="M171">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>7.5</v>
+      </c>
+      <c r="B172">
+        <v>3.8583333333333298</v>
+      </c>
+      <c r="C172">
+        <v>0.109171410278116</v>
+      </c>
+      <c r="D172">
+        <v>59253.237981863698</v>
+      </c>
+      <c r="E172">
+        <v>48391.417732599599</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>1.09927733532373</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>10860.7209719287</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0.153325936208103</v>
+      </c>
+      <c r="M172">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>7.5999999999999899</v>
+      </c>
+      <c r="B173">
+        <v>3.9097777777777698</v>
+      </c>
+      <c r="C173">
+        <v>0.11062702908182399</v>
+      </c>
+      <c r="D173">
+        <v>60757.802077619497</v>
+      </c>
+      <c r="E173">
+        <v>49604.139513696398</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>1.3915712368242601</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>11152.270992686201</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0.153249114832917</v>
+      </c>
+      <c r="M173">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>7.7</v>
+      </c>
+      <c r="B174">
+        <v>3.96122222222222</v>
+      </c>
+      <c r="C174">
+        <v>0.112082647885532</v>
+      </c>
+      <c r="D174">
+        <v>62280.312556423603</v>
+      </c>
+      <c r="E174">
+        <v>50830.878594001202</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>1.7513592996630301</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>11447.682603122699</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0.15317350306829899</v>
+      </c>
+      <c r="M174">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>7.7999999999999901</v>
+      </c>
+      <c r="B175">
+        <v>4.0126666666666599</v>
+      </c>
+      <c r="C175">
+        <v>0.11353826668924</v>
+      </c>
+      <c r="D175">
+        <v>63820.761126870901</v>
+      </c>
+      <c r="E175">
+        <v>52071.613473955797</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>2.1918496769861999</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>11746.955803238099</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0.15309906634041301</v>
+      </c>
+      <c r="M175">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>7.9</v>
+      </c>
+      <c r="B176">
+        <v>4.0641111111111101</v>
+      </c>
+      <c r="C176">
+        <v>0.11499388549294801</v>
+      </c>
+      <c r="D176">
+        <v>65379.141930881997</v>
+      </c>
+      <c r="E176">
+        <v>53326.322979571902</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>2.7283582776109401</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>12050.090593032401</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0.15302577149402399</v>
+      </c>
+      <c r="M176">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>8</v>
+      </c>
+      <c r="B177">
+        <v>4.1155555555555496</v>
+      </c>
+      <c r="C177">
+        <v>0.116449504296657</v>
+      </c>
+      <c r="D177">
+        <v>66955.4517903573</v>
+      </c>
+      <c r="E177">
+        <v>54594.9862533868</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>3.37856446494945</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>12357.0869725055</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0.15295358671710901</v>
+      </c>
+      <c r="M177">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>8.0999999999999908</v>
+      </c>
+      <c r="B178">
+        <v>4.16699999999999</v>
+      </c>
+      <c r="C178">
+        <v>0.11790512310036499</v>
+      </c>
+      <c r="D178">
+        <v>68549.690474099203</v>
+      </c>
+      <c r="E178">
+        <v>55877.582745780201</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>4.1627866612690498</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>12667.944941657601</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0.15288248147036601</v>
+      </c>
+      <c r="M178">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>8.1999999999999904</v>
+      </c>
+      <c r="B179">
+        <v>4.2184444444444402</v>
+      </c>
+      <c r="C179">
+        <v>0.119360741904073</v>
+      </c>
+      <c r="D179">
+        <v>70161.860985332998</v>
+      </c>
+      <c r="E179">
+        <v>57174.092206635803</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>5.1042782085004701</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>12982.6645004886</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0.15281242642124099</v>
+      </c>
+      <c r="M179">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B180">
+        <v>4.2698888888888797</v>
+      </c>
+      <c r="C180">
+        <v>0.120816360707781</v>
+      </c>
+      <c r="D180">
+        <v>71791.969870064393</v>
+      </c>
+      <c r="E180">
+        <v>58484.494677327697</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>6.22954373807121</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>13301.2456489986</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0.15274339338214599</v>
+      </c>
+      <c r="M180">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>8.4</v>
+      </c>
+      <c r="B181">
+        <v>4.3213333333333299</v>
+      </c>
+      <c r="C181">
+        <v>0.12227197951148901</v>
+      </c>
+      <c r="D181">
+        <v>73440.027546403595</v>
+      </c>
+      <c r="E181">
+        <v>59808.770483016597</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>7.5686761996179097</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>13623.6883871874</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0.15267535525252801</v>
+      </c>
+      <c r="M181">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>8.5</v>
+      </c>
+      <c r="B182">
+        <v>4.3727777777777703</v>
+      </c>
+      <c r="C182">
+        <v>0.123727598315198</v>
+      </c>
+      <c r="D182">
+        <v>75106.048654887505</v>
+      </c>
+      <c r="E182">
+        <v>61146.9002252395</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>9.1557145929137302</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>13949.992715055099</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0.15260828596453499</v>
+      </c>
+      <c r="M182">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>8.5999999999999908</v>
+      </c>
+      <c r="B183">
+        <v>4.4242222222222196</v>
+      </c>
+      <c r="C183">
+        <v>0.12518321711890601</v>
+      </c>
+      <c r="D183">
+        <v>76790.052429720599</v>
+      </c>
+      <c r="E183">
+        <v>62498.8647747789</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>11.029022339925501</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>14280.1586326017</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0.152542160431998</v>
+      </c>
+      <c r="M183">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>8.6999999999999904</v>
+      </c>
+      <c r="B184">
+        <v>4.47566666666666</v>
+      </c>
+      <c r="C184">
+        <v>0.12663883592261399</v>
+      </c>
+      <c r="D184">
+        <v>78492.0630907507</v>
+      </c>
+      <c r="E184">
+        <v>63864.6452647978</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>13.2316861255772</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>14614.186139827299</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0.15247695450249599</v>
+      </c>
+      <c r="M184">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B185">
+        <v>4.5271111111111102</v>
+      </c>
+      <c r="C185">
+        <v>0.128094454726322</v>
+      </c>
+      <c r="D185">
+        <v>80212.110255885695</v>
+      </c>
+      <c r="E185">
+        <v>65244.223084226498</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>15.8119349274992</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>14952.0752367317</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0.15241264491228401</v>
+      </c>
+      <c r="M185">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>8.9</v>
+      </c>
+      <c r="B186">
+        <v>4.5785555555555497</v>
+      </c>
+      <c r="C186">
+        <v>0.12955007353003101</v>
+      </c>
+      <c r="D186">
+        <v>81950.229373553593</v>
+      </c>
+      <c r="E186">
+        <v>66637.579871390699</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>18.823578847711499</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>15293.8259233151</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0.15234920924388601</v>
+      </c>
+      <c r="M186">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>9</v>
+      </c>
+      <c r="B187">
+        <v>4.63</v>
+      </c>
+      <c r="C187">
+        <v>0.13100569233373899</v>
+      </c>
+      <c r="D187">
+        <v>83706.462174700297</v>
+      </c>
+      <c r="E187">
+        <v>68044.697507869205</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>22.3264672537052</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>15639.4381995773</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0.15228662588615899</v>
+      </c>
+      <c r="M187">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>9.0999999999999908</v>
+      </c>
+      <c r="B188">
+        <v>4.6814444444444403</v>
+      </c>
+      <c r="C188">
+        <v>0.132461311137447</v>
+      </c>
+      <c r="D188">
+        <v>85480.857143721107</v>
+      </c>
+      <c r="E188">
+        <v>69465.558112568993</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>26.3869656335652</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>15988.9120655185</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0.15222487399666501</v>
+      </c>
+      <c r="M188">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>9.1999999999999904</v>
+      </c>
+      <c r="B189">
+        <v>4.7328888888888798</v>
+      </c>
+      <c r="C189">
+        <v>0.13391692994115501</v>
+      </c>
+      <c r="D189">
+        <v>87273.470007618904</v>
+      </c>
+      <c r="E189">
+        <v>70900.144036009806</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>31.0784504704068</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>16342.247521138601</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0.152163933466198</v>
+      </c>
+      <c r="M189">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B190">
+        <v>4.78433333333333</v>
+      </c>
+      <c r="C190">
+        <v>0.13537254874486301</v>
+      </c>
+      <c r="D190">
+        <v>89084.364242590804</v>
+      </c>
+      <c r="E190">
+        <v>72348.437854806907</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>36.481821346274501</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>16699.4445664376</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0.15210378488530399</v>
+      </c>
+      <c r="M190">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>9.4</v>
+      </c>
+      <c r="B191">
+        <v>4.8357777777777704</v>
+      </c>
+      <c r="C191">
+        <v>0.13682816754857199</v>
+      </c>
+      <c r="D191">
+        <v>90913.611597154901</v>
+      </c>
+      <c r="E191">
+        <v>73810.422366343904</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>42.686029395489797</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>17060.5032014155</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0.152044409512684</v>
+      </c>
+      <c r="M191">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>9.5</v>
+      </c>
+      <c r="B192">
+        <v>4.8872222222222197</v>
+      </c>
+      <c r="C192">
+        <v>0.13828378635228</v>
+      </c>
+      <c r="D192">
+        <v>92761.292630842305</v>
+      </c>
+      <c r="E192">
+        <v>75286.080583627307</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>49.788621142670301</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>17425.423426072299</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0.15198578924533299</v>
+      </c>
+      <c r="M192">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>9.5999999999999908</v>
+      </c>
+      <c r="B193">
+        <v>4.9386666666666601</v>
+      </c>
+      <c r="C193">
+        <v>0.13973940515598801</v>
+      </c>
+      <c r="D193">
+        <v>94627.497267402898</v>
+      </c>
+      <c r="E193">
+        <v>76775.395730313903</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>57.8962966809272</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>17794.205240407999</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0.15192790659032299</v>
+      </c>
+      <c r="M193">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>9.6999999999999904</v>
+      </c>
+      <c r="B194">
+        <v>4.9901111111111103</v>
+      </c>
+      <c r="C194">
+        <v>0.14119502395969599</v>
+      </c>
+      <c r="D194">
+        <v>96512.325361396594</v>
+      </c>
+      <c r="E194">
+        <v>78278.351235903698</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>67.125481070196201</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>18166.8486444226</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0.15187074463810701</v>
+      </c>
+      <c r="M194">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B195">
+        <v>5.0415555555555498</v>
+      </c>
+      <c r="C195">
+        <v>0.142650642763404</v>
+      </c>
+      <c r="D195">
+        <v>98415.887276973299</v>
+      </c>
+      <c r="E195">
+        <v>79794.930731092594</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>77.602907764437703</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>18543.353638116201</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0.151814287037257</v>
+      </c>
+      <c r="M195">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>9.9</v>
+      </c>
+      <c r="B196">
+        <v>5.093</v>
+      </c>
+      <c r="C196">
+        <v>0.14410626156711301</v>
+      </c>
+      <c r="D196">
+        <v>100338.304477577</v>
+      </c>
+      <c r="E196">
+        <v>81325.118043275201</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>89.466212814021603</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>18923.720221488598</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0.15175851797053999</v>
+      </c>
+      <c r="M196">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>10</v>
+      </c>
+      <c r="B197">
+        <v>5.1444444444444404</v>
+      </c>
+      <c r="C197">
+        <v>0.14556188037082099</v>
+      </c>
+      <c r="D197">
+        <v>102279.71012528001</v>
+      </c>
+      <c r="E197">
+        <v>82868.897192194199</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>102.86453854655799</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>19307.948394539901</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0.15170342213225199</v>
+      </c>
+      <c r="M197">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>10.1</v>
+      </c>
+      <c r="B198">
+        <v>5.1958888888888799</v>
+      </c>
+      <c r="C198">
+        <v>0.147017499174529</v>
+      </c>
+      <c r="D198">
+        <v>104240.249688415</v>
+      </c>
+      <c r="E198">
+        <v>84426.252385728105</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>117.959145417125</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>19696.038157270199</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0.15164898470672999</v>
+      </c>
+      <c r="M198">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>10.1999999999999</v>
+      </c>
+      <c r="B199">
+        <v>5.2473333333333301</v>
+      </c>
+      <c r="C199">
+        <v>0.14847311797823701</v>
+      </c>
+      <c r="D199">
+        <v>106220.081556226</v>
+      </c>
+      <c r="E199">
+        <v>85997.168015813004</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>134.92403073416901</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>20087.989509679399</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0.151595191347969</v>
+      </c>
+      <c r="M199">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>10.3</v>
+      </c>
+      <c r="B200">
+        <v>5.2987777777777696</v>
+      </c>
+      <c r="C200">
+        <v>0.14992873678194599</v>
+      </c>
+      <c r="D200">
+        <v>108219.37765923201</v>
+      </c>
+      <c r="E200">
+        <v>87581.628654491797</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>153.94655297326301</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>20483.802451767398</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0.15154202816028101</v>
+      </c>
+      <c r="M200">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>10.4</v>
+      </c>
+      <c r="B201">
+        <v>5.3502222222222198</v>
+      </c>
+      <c r="C201">
+        <v>0.151384355585654</v>
+      </c>
+      <c r="D201">
+        <v>110238.32409393101</v>
+      </c>
+      <c r="E201">
+        <v>89179.619050085996</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>175.22806031138299</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>20883.476983534401</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0.15148948167992499</v>
+      </c>
+      <c r="M201">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>10.5</v>
+      </c>
+      <c r="B202">
+        <v>5.4016666666666602</v>
+      </c>
+      <c r="C202">
+        <v>0.152839974389362</v>
+      </c>
+      <c r="D202">
+        <v>112277.121750234</v>
+      </c>
+      <c r="E202">
+        <v>90791.124123485904</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>198.984521767659</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>21287.013104980299</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0.15143753885766001</v>
+      </c>
+      <c r="M202">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>10.6</v>
+      </c>
+      <c r="B203">
+        <v>5.4531111111111104</v>
+      </c>
+      <c r="C203">
+        <v>0.15429559319307001</v>
+      </c>
+      <c r="D203">
+        <v>114335.986939569</v>
+      </c>
+      <c r="E203">
+        <v>92416.128964553005</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>225.44715891149499</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>21694.410816105101</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0.151386187042162</v>
+      </c>
+      <c r="M203">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>10.6999999999999</v>
+      </c>
+      <c r="B204">
+        <v>5.5045555555555499</v>
+      </c>
+      <c r="C204">
+        <v>0.15575121199677799</v>
+      </c>
+      <c r="D204">
+        <v>116415.152021186</v>
+      </c>
+      <c r="E204">
+        <v>94054.618828630802</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>254.86307564702301</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>22105.670116908801</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0.15133541396424899</v>
+      </c>
+      <c r="M204">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>10.8</v>
+      </c>
+      <c r="B205">
+        <v>5.556</v>
+      </c>
+      <c r="C205">
+        <v>0.157206830800487</v>
+      </c>
+      <c r="D205">
+        <v>118514.86602401</v>
+      </c>
+      <c r="E205">
+        <v>95706.579133161504</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>287.49588345700801</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>22520.791007391399</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0.151285207721882</v>
+      </c>
+      <c r="M205">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>10.9</v>
+      </c>
+      <c r="B206">
+        <v>5.6074444444444396</v>
+      </c>
+      <c r="C206">
+        <v>0.15866244960419501</v>
+      </c>
+      <c r="D206">
+        <v>120635.39526211099</v>
+      </c>
+      <c r="E206">
+        <v>97371.995454400007</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>323.626320158346</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>22939.773487552899</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0.151235556765875</v>
+      </c>
+      <c r="M206">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>11</v>
+      </c>
+      <c r="B207">
+        <v>5.65888888888888</v>
+      </c>
+      <c r="C207">
+        <v>0.16011806840790299</v>
+      </c>
+      <c r="D207">
+        <v>122777.02394365</v>
+      </c>
+      <c r="E207">
+        <v>99050.853524227205</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>363.55286203008097</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>23362.6175573933</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0.151186449886302</v>
+      </c>
+      <c r="M207">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>11.1</v>
+      </c>
+      <c r="B208">
+        <v>5.7103333333333302</v>
+      </c>
+      <c r="C208">
+        <v>0.161573687211611</v>
+      </c>
+      <c r="D208">
+        <v>124940.054775977</v>
+      </c>
+      <c r="E208">
+        <v>100743.13922705399</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>407.59233201110999</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>23789.3232169127</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0.151137876199536</v>
+      </c>
+      <c r="M208">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>11.1999999999999</v>
+      </c>
+      <c r="B209">
+        <v>5.7617777777777697</v>
+      </c>
+      <c r="C209">
+        <v>0.16302930601531901</v>
+      </c>
+      <c r="D209">
+        <v>127124.809572616</v>
+      </c>
+      <c r="E209">
+        <v>102448.838596815</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>456.08050969016699</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>24219.890466110901</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0.151089825135894</v>
+      </c>
+      <c r="M209">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>11.3</v>
+      </c>
+      <c r="B210">
+        <v>5.8132222222222198</v>
+      </c>
+      <c r="C210">
+        <v>0.16448492481902799</v>
+      </c>
+      <c r="D210">
+        <v>129331.629869481</v>
+      </c>
+      <c r="E210">
+        <v>104167.937814049</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>509.372750444296</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>24654.319304988101</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0.15104228642786799</v>
+      </c>
+      <c r="M210">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>11.4</v>
+      </c>
+      <c r="B211">
+        <v>5.8646666666666603</v>
+      </c>
+      <c r="C211">
+        <v>0.165940543622736</v>
+      </c>
+      <c r="D211">
+        <v>131560.87755598</v>
+      </c>
+      <c r="E211">
+        <v>105900.423203058</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>567.84461937792503</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>25092.609733544101</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0.15099525009888201</v>
+      </c>
+      <c r="M211">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>11.5</v>
+      </c>
+      <c r="B212">
+        <v>5.9161111111111104</v>
+      </c>
+      <c r="C212">
+        <v>0.16739616242644401</v>
+      </c>
+      <c r="D212">
+        <v>133812.93552004901</v>
+      </c>
+      <c r="E212">
+        <v>107646.28122915501</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>631.89253911493495</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>25534.7617517791</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0.150948706452572</v>
+      </c>
+      <c r="M212">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>11.6</v>
+      </c>
+      <c r="B213">
+        <v>5.96755555555555</v>
+      </c>
+      <c r="C213">
+        <v>0.16885178123015199</v>
+      </c>
+      <c r="D213">
+        <v>136088.208294424</v>
+      </c>
+      <c r="E213">
+        <v>109405.498495975</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>701.93443875535399</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>25980.775359693002</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0.150902646062549</v>
+      </c>
+      <c r="M213">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>11.6999999999999</v>
+      </c>
+      <c r="B214">
+        <v>6.0190000000000001</v>
+      </c>
+      <c r="C214">
+        <v>0.170307400033861</v>
+      </c>
+      <c r="D214">
+        <v>138387.1226764</v>
+      </c>
+      <c r="E214">
+        <v>111178.061742873</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>778.41037624178796</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>26430.650557285699</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0.15085705976261901</v>
+      </c>
+      <c r="M214">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>11.8</v>
+      </c>
+      <c r="B215">
+        <v>6.0704444444444396</v>
+      </c>
+      <c r="C215">
+        <v>0.171763018837569</v>
+      </c>
+      <c r="D215">
+        <v>140710.12827899799</v>
+      </c>
+      <c r="E215">
+        <v>112963.95784238201</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>861.78309205806499</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>26884.387344557399</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0.150811938637438</v>
+      </c>
+      <c r="M215">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>11.9</v>
+      </c>
+      <c r="B216">
+        <v>6.1218888888888801</v>
+      </c>
+      <c r="C216">
+        <v>0.17321863764127701</v>
+      </c>
+      <c r="D216">
+        <v>143057.69796358899</v>
+      </c>
+      <c r="E216">
+        <v>114763.173797753</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>952.53844432764299</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>27341.985721508001</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>0.150767274013582</v>
+      </c>
+      <c r="M216">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>12</v>
+      </c>
+      <c r="B217">
+        <v>6.1733333333333302</v>
+      </c>
+      <c r="C217">
+        <v>0.17467425644498499</v>
+      </c>
+      <c r="D217">
+        <v>145430.328108663</v>
+      </c>
+      <c r="E217">
+        <v>116575.69674054399</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>1051.185679981</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>27803.445688137501</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0.15072305745099901</v>
+      </c>
+      <c r="M217">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>12.1</v>
+      </c>
+      <c r="B218">
+        <v>6.2247777777777697</v>
+      </c>
+      <c r="C218">
+        <v>0.176129875248693</v>
+      </c>
+      <c r="D218">
+        <v>147828.53869082301</v>
+      </c>
+      <c r="E218">
+        <v>118401.513928289</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>1158.25751808733</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>28268.767244446</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0.15067928073484599</v>
+      </c>
+      <c r="M218">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>12.1999999999999</v>
+      </c>
+      <c r="B219">
+        <v>6.2762222222222199</v>
+      </c>
+      <c r="C219">
+        <v>0.17758549405240201</v>
+      </c>
+      <c r="D219">
+        <v>150252.87319323001</v>
+      </c>
+      <c r="E219">
+        <v>120240.61274221999</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>1274.3100605766199</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>28737.9503904333</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0.150635935867661</v>
+      </c>
+      <c r="M219">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>12.3</v>
+      </c>
+      <c r="B220">
+        <v>6.3276666666666603</v>
+      </c>
+      <c r="C220">
+        <v>0.17904111285610999</v>
+      </c>
+      <c r="D220">
+        <v>152703.89840968401</v>
+      </c>
+      <c r="E220">
+        <v>122092.980685049</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>1399.9225985350699</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>29210.9951260995</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0.150593015061878</v>
+      </c>
+      <c r="M220">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>12.4</v>
+      </c>
+      <c r="B221">
+        <v>6.3791111111111096</v>
+      </c>
+      <c r="C221">
+        <v>0.180496731659818</v>
+      </c>
+      <c r="D221">
+        <v>155182.20427044999</v>
+      </c>
+      <c r="E221">
+        <v>123958.605378811</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>1535.69744019369</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>29687.901451444599</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0.15055051073265799</v>
+      </c>
+      <c r="M221">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>12.5</v>
+      </c>
+      <c r="B222">
+        <v>6.43055555555555</v>
+      </c>
+      <c r="C222">
+        <v>0.18195235046352601</v>
+      </c>
+      <c r="D222">
+        <v>157688.40386614899</v>
+      </c>
+      <c r="E222">
+        <v>125837.474562762</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>1682.2599369176801</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>30168.669366468701</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0.15050841549101701</v>
+      </c>
+      <c r="M222">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>12.6</v>
+      </c>
+      <c r="B223">
+        <v>6.4820000000000002</v>
+      </c>
+      <c r="C223">
+        <v>0.18340796926723399</v>
+      </c>
+      <c r="D223">
+        <v>160223.13387406801</v>
+      </c>
+      <c r="E223">
+        <v>127729.576091325</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>1840.25891157103</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>30653.298871171599</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0.15046672213724399</v>
+      </c>
+      <c r="M223">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>12.6999999999999</v>
+      </c>
+      <c r="B224">
+        <v>6.5334444444444397</v>
+      </c>
+      <c r="C224">
+        <v>0.184863588070943</v>
+      </c>
+      <c r="D224">
+        <v>162787.05558423599</v>
+      </c>
+      <c r="E224">
+        <v>129634.89793209601</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>2010.36768658603</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>31141.7899655535</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0.150425423654586</v>
+      </c>
+      <c r="M224">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>12.8</v>
+      </c>
+      <c r="B225">
+        <v>6.5848888888888801</v>
+      </c>
+      <c r="C225">
+        <v>0.18631920687465101</v>
+      </c>
+      <c r="D225">
+        <v>165380.85667194601</v>
+      </c>
+      <c r="E225">
+        <v>131553.42816389701</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>2193.2858584349901</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>31634.142649614299</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0.15038451320319701</v>
+      </c>
+      <c r="M225">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>12.9</v>
+      </c>
+      <c r="B226">
+        <v>6.6363333333333303</v>
+      </c>
+      <c r="C226">
+        <v>0.18777482567835899</v>
+      </c>
+      <c r="D226">
+        <v>168005.25376782901</v>
+      </c>
+      <c r="E226">
+        <v>133485.15497487399</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>2389.74186960118</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>32130.356923354</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0.15034398411433</v>
+      </c>
+      <c r="M226">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>13</v>
+      </c>
+      <c r="B227">
+        <v>6.6877777777777698</v>
+      </c>
+      <c r="C227">
+        <v>0.189230444482067</v>
+      </c>
+      <c r="D227">
+        <v>170660.99574308199</v>
+      </c>
+      <c r="E227">
+        <v>135430.066660649</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>2600.4962956601898</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>32630.432786772501</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0.15030382988475899</v>
+      </c>
+      <c r="M227">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>13.1</v>
+      </c>
+      <c r="B228">
+        <v>6.73922222222222</v>
+      </c>
+      <c r="C228">
+        <v>0.190686063285776</v>
+      </c>
+      <c r="D228">
+        <v>173348.86747141799</v>
+      </c>
+      <c r="E228">
+        <v>137388.15162251101</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>2826.3456090372201</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>33134.370239869997</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0.15026404417143799</v>
+      </c>
+      <c r="M228">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>13.1999999999999</v>
+      </c>
+      <c r="B229">
+        <v>6.7906666666666604</v>
+      </c>
+      <c r="C229">
+        <v>0.19214168208948401</v>
+      </c>
+      <c r="D229">
+        <v>176069.693672386</v>
+      </c>
+      <c r="E229">
+        <v>139359.39836565501</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>3068.1260240849801</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>33642.169282646399</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0.15022462078635199</v>
+      </c>
+      <c r="M229">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>13.3</v>
+      </c>
+      <c r="B230">
+        <v>6.8421111111111097</v>
+      </c>
+      <c r="C230">
+        <v>0.19359730089319199</v>
+      </c>
+      <c r="D230">
+        <v>178824.34230769999</v>
+      </c>
+      <c r="E230">
+        <v>141343.79549746099</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>3326.7168951376998</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>34153.8299151018</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0.15018555369158801</v>
+      </c>
+      <c r="M230">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>13.4</v>
+      </c>
+      <c r="B231">
+        <v>6.8935555555555501</v>
+      </c>
+      <c r="C231">
+        <v>0.1950529196969</v>
+      </c>
+      <c r="D231">
+        <v>181613.72691716999</v>
+      </c>
+      <c r="E231">
+        <v>143341.331725817</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>3603.0430541167402</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>34669.352137235997</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0.150146836994593</v>
+      </c>
+      <c r="M231">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>13.5</v>
+      </c>
+      <c r="B232">
+        <v>6.9450000000000003</v>
+      </c>
+      <c r="C232">
+        <v>0.19650853850060801</v>
+      </c>
+      <c r="D232">
+        <v>184438.80726289199</v>
+      </c>
+      <c r="E232">
+        <v>145351.99585748199</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>3898.0754563601299</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>35188.7359490491</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0.15010846494361099</v>
+      </c>
+      <c r="M232">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>13.6</v>
+      </c>
+      <c r="B233">
+        <v>6.9964444444444398</v>
+      </c>
+      <c r="C233">
+        <v>0.19796415730431699</v>
+      </c>
+      <c r="D233">
+        <v>187300.58771114799</v>
+      </c>
+      <c r="E233">
+        <v>147375.776796483</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>4212.8295641242903</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>35711.9813505411</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0.15007043192330299</v>
+      </c>
+      <c r="M233">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>13.6999999999999</v>
+      </c>
+      <c r="B234">
+        <v>7.0478888888888802</v>
+      </c>
+      <c r="C234">
+        <v>0.199419776108025</v>
+      </c>
+      <c r="D234">
+        <v>190200.112922976</v>
+      </c>
+      <c r="E234">
+        <v>149412.663542553</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>4548.36103871044</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>36239.0883417121</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0.150032732450532</v>
+      </c>
+      <c r="M234">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>13.8</v>
+      </c>
+      <c r="B235">
+        <v>7.0993333333333304</v>
+      </c>
+      <c r="C235">
+        <v>0.20087539491173301</v>
+      </c>
+      <c r="D235">
+        <v>193138.46063896699</v>
+      </c>
+      <c r="E235">
+        <v>151462.645189609</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>4905.7585267951299</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>36770.056922561896</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0.14999536117030801</v>
+      </c>
+      <c r="M235">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>13.9</v>
+      </c>
+      <c r="B236">
+        <v>7.1507777777777699</v>
+      </c>
+      <c r="C236">
+        <v>0.20233101371544099</v>
+      </c>
+      <c r="D236">
+        <v>196116.73161551001</v>
+      </c>
+      <c r="E236">
+        <v>153525.71092425901</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>5286.1335981598104</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>37304.8870930907</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0.14995831285188199</v>
+      </c>
+      <c r="M236">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>14</v>
+      </c>
+      <c r="B237">
+        <v>7.2022222222222201</v>
+      </c>
+      <c r="C237">
+        <v>0.203786632519149</v>
+      </c>
+      <c r="D237">
+        <v>199136.03707558199</v>
+      </c>
+      <c r="E237">
+        <v>155601.85002434501</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>5690.6081979382798</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>37843.578853298299</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0.149921582384998</v>
+      </c>
+      <c r="M237">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>14.1</v>
+      </c>
+      <c r="B238">
+        <v>7.2536666666666596</v>
+      </c>
+      <c r="C238">
+        <v>0.205242251322858</v>
+      </c>
+      <c r="D238">
+        <v>202197.48435056399</v>
+      </c>
+      <c r="E238">
+        <v>157691.05185752199</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>6120.3002898568802</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>38386.132203184898</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>0.14988516477626501</v>
+      </c>
+      <c r="M238">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>14.2</v>
+      </c>
+      <c r="B239">
+        <v>7.3051111111111098</v>
+      </c>
+      <c r="C239">
+        <v>0.20669787012656601</v>
+      </c>
+      <c r="D239">
+        <v>205302.1616816</v>
+      </c>
+      <c r="E239">
+        <v>159793.30587986499</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>6576.3086589845198</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>38932.547142750402</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0.149849055145684</v>
+      </c>
+      <c r="M239">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>14.3</v>
+      </c>
+      <c r="B240">
+        <v>7.3565555555555502</v>
+      </c>
+      <c r="C240">
+        <v>0.20815348893027399</v>
+      </c>
+      <c r="D240">
+        <v>208451.12339126499</v>
+      </c>
+      <c r="E240">
+        <v>161908.601634511</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>7059.6980847592704</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>39482.823671994804</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0.149813248723288</v>
+      </c>
+      <c r="M240">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>14.4</v>
+      </c>
+      <c r="B241">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="C241">
+        <v>0.209609107733982</v>
+      </c>
+      <c r="D241">
+        <v>211645.376802521</v>
+      </c>
+      <c r="E241">
+        <v>164036.92875033099</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>7571.4862612718098</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>40036.961790918103</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0.149777740845906</v>
+      </c>
+      <c r="M241">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>14.5</v>
+      </c>
+      <c r="B242">
+        <v>7.4594444444444399</v>
+      </c>
+      <c r="C242">
+        <v>0.21106472653769001</v>
+      </c>
+      <c r="D242">
+        <v>214885.87235006801</v>
+      </c>
+      <c r="E242">
+        <v>166178.27694062699</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>8112.6339099213401</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>40594.961499520301</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0.14974252695405099</v>
+      </c>
+      <c r="M242">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>14.6</v>
+      </c>
+      <c r="B243">
+        <v>7.5108888888888803</v>
+      </c>
+      <c r="C243">
+        <v>0.21252034534139899</v>
+      </c>
+      <c r="D243">
+        <v>218173.49828350099</v>
+      </c>
+      <c r="E243">
+        <v>168332.636001862</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>8684.0394838370903</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>41156.822797801397</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>0.149707602588913</v>
+      </c>
+      <c r="M243">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>14.7</v>
+      </c>
+      <c r="B244">
+        <v>7.5623333333333296</v>
+      </c>
+      <c r="C244">
+        <v>0.213975964145107</v>
+      </c>
+      <c r="D244">
+        <v>221509.08119464401</v>
+      </c>
+      <c r="E244">
+        <v>170499.99581241899</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>9286.5396964635893</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>41722.545685761397</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0.14967296338946001</v>
+      </c>
+      <c r="M244">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>14.8</v>
+      </c>
+      <c r="B245">
+        <v>7.61377777777777</v>
+      </c>
+      <c r="C245">
+        <v>0.21543158294881501</v>
+      </c>
+      <c r="D245">
+        <v>224893.393316078</v>
+      </c>
+      <c r="E245">
+        <v>172680.346331382</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>9920.9168212955101</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>42292.130163400398</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0.14963860508964499</v>
+      </c>
+      <c r="M245">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>14.9</v>
+      </c>
+      <c r="B246">
+        <v>7.6652222222222202</v>
+      </c>
+      <c r="C246">
+        <v>0.21688720175252299</v>
+      </c>
+      <c r="D246">
+        <v>228327.16714832399</v>
+      </c>
+      <c r="E246">
+        <v>174873.677597345</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>10587.913320260801</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>42865.576230718201</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0.14960452351570599</v>
+      </c>
+      <c r="M246">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>15</v>
+      </c>
+      <c r="B247">
+        <v>7.7166666666666597</v>
+      </c>
+      <c r="C247">
+        <v>0.218342820556232</v>
+      </c>
+      <c r="D247">
+        <v>231811.11750552399</v>
+      </c>
+      <c r="E247">
+        <v>177079.97972725</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>11288.2538905581</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>43442.883887714903</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0.14957071458356699</v>
+      </c>
+      <c r="M247">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>15.1</v>
+      </c>
+      <c r="B248">
+        <v>7.7681111111111099</v>
+      </c>
+      <c r="C248">
+        <v>0.21979843935994001</v>
+      </c>
+      <c r="D248">
+        <v>235345.970559365</v>
+      </c>
+      <c r="E248">
+        <v>179299.24291524701</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>12022.6745097278</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>44024.053134390597</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0.14953717429632099</v>
+      </c>
+      <c r="M248">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>15.2</v>
+      </c>
+      <c r="B249">
+        <v>7.8195555555555503</v>
+      </c>
+      <c r="C249">
+        <v>0.22125405816364799</v>
+      </c>
+      <c r="D249">
+        <v>238932.498951332</v>
+      </c>
+      <c r="E249">
+        <v>181531.457431574</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>12791.957549012601</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>44609.083970745203</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0.149503898741809</v>
+      </c>
+      <c r="M249">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>15.3</v>
+      </c>
+      <c r="B250">
+        <v>7.8710000000000004</v>
+      </c>
+      <c r="C250">
+        <v>0.222709676967356</v>
+      </c>
+      <c r="D250">
+        <v>242571.56157861199</v>
+      </c>
+      <c r="E250">
+        <v>183776.61362146901</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>13596.9715603639</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>45197.976396778598</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0.14947088409027001</v>
+      </c>
+      <c r="M250">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>15.4</v>
+      </c>
+      <c r="B251">
+        <v>7.92244444444444</v>
+      </c>
+      <c r="C251">
+        <v>0.224165295771064</v>
+      </c>
+      <c r="D251">
+        <v>246264.14628074801</v>
+      </c>
+      <c r="E251">
+        <v>186034.70190410101</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>14438.713964156401</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>45790.730412491001</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0.149438126592086</v>
+      </c>
+      <c r="M251">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>15.5</v>
+      </c>
+      <c r="B252">
+        <v>7.9738888888888804</v>
+      </c>
+      <c r="C252">
+        <v>0.22562091457477301</v>
+      </c>
+      <c r="D252">
+        <v>250011.41339484099</v>
+      </c>
+      <c r="E252">
+        <v>188305.712771516</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>15318.354605442901</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>46387.346017882301</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0.14940562257558901</v>
+      </c>
+      <c r="M252">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>15.6</v>
+      </c>
+      <c r="B253">
+        <v>8.0253333333333305</v>
+      </c>
+      <c r="C253">
+        <v>0.22707653337848099</v>
+      </c>
+      <c r="D253">
+        <v>253814.73802671599</v>
+      </c>
+      <c r="E253">
+        <v>190589.63678761901</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>16237.278026145001</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>46987.823212952499</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0.14937336844495</v>
+      </c>
+      <c r="M253">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>15.7</v>
+      </c>
+      <c r="B254">
+        <v>8.0767777777777692</v>
+      </c>
+      <c r="C254">
+        <v>0.228532152182189</v>
+      </c>
+      <c r="D254">
+        <v>257675.74890819899</v>
+      </c>
+      <c r="E254">
+        <v>192886.46458716301</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>17197.122323334199</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>47592.161997701602</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0.149341360678134</v>
+      </c>
+      <c r="M254">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>15.8</v>
+      </c>
+      <c r="B255">
+        <v>8.1282222222222202</v>
+      </c>
+      <c r="C255">
+        <v>0.22998777098589701</v>
+      </c>
+      <c r="D255">
+        <v>261596.361865688</v>
+      </c>
+      <c r="E255">
+        <v>195196.18687476899</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>18199.812618789601</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>48200.362372129603</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0.149309595824927</v>
+      </c>
+      <c r="M255">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>15.9</v>
+      </c>
+      <c r="B256">
+        <v>8.1796666666666606</v>
+      </c>
+      <c r="C256">
+        <v>0.23144338978960499</v>
+      </c>
+      <c r="D256">
+        <v>265578.806188519</v>
+      </c>
+      <c r="E256">
+        <v>197518.79442395599</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>19247.5874283257</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>48812.424336236501</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0.14927807050502601</v>
+      </c>
+      <c r="M256">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>16</v>
+      </c>
+      <c r="B257">
+        <v>8.2311111111111099</v>
+      </c>
+      <c r="C257">
+        <v>0.232899008593314</v>
+      </c>
+      <c r="D257">
+        <v>269625.64252424001</v>
+      </c>
+      <c r="E257">
+        <v>199854.27807620299</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>20343.0165580143</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>49428.347890022298</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0.14924678140618899</v>
+      </c>
+      <c r="M257">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B258">
+        <v>8.2825555555555503</v>
+      </c>
+      <c r="C258">
+        <v>0.23435462739702201</v>
+      </c>
+      <c r="D258">
+        <v>273739.77130505297</v>
+      </c>
+      <c r="E258">
+        <v>202202.62874001401</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>21489.009531551801</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>50048.133033487102</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>0.149215725282448</v>
+      </c>
+      <c r="M258">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>16.2</v>
+      </c>
+      <c r="B259">
+        <v>8.3339999999999996</v>
+      </c>
+      <c r="C259">
+        <v>0.23581024620072999</v>
+      </c>
+      <c r="D259">
+        <v>277924.43108988099</v>
+      </c>
+      <c r="E259">
+        <v>204563.83739001601</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>22688.813933234302</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>50671.779766630701</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0.14918489895238099</v>
+      </c>
+      <c r="M259">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>16.3</v>
+      </c>
+      <c r="B260">
+        <v>8.38544444444444</v>
+      </c>
+      <c r="C260">
+        <v>0.237265865004438</v>
+      </c>
+      <c r="D260">
+        <v>282183.18656017003</v>
+      </c>
+      <c r="E260">
+        <v>206937.89506606699</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>23946.0034046492</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>51299.288089453301</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0.14915429929743401</v>
+      </c>
+      <c r="M260">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>16.399999999999899</v>
+      </c>
+      <c r="B261">
+        <v>8.4368888888888804</v>
+      </c>
+      <c r="C261">
+        <v>0.23872148380814701</v>
+      </c>
+      <c r="D261">
+        <v>286519.90621391701</v>
+      </c>
+      <c r="E261">
+        <v>209324.79287238201</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>25264.4553395802</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>51930.658001954696</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0.14912392326030399</v>
+      </c>
+      <c r="M261">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>16.5</v>
+      </c>
+      <c r="B262">
+        <v>8.4883333333333297</v>
+      </c>
+      <c r="C262">
+        <v>0.24017710261185499</v>
+      </c>
+      <c r="D262">
+        <v>290938.73005112598</v>
+      </c>
+      <c r="E262">
+        <v>211724.52197667901</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>26648.3185703116</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>52565.889504135099</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0.149093767843367</v>
+      </c>
+      <c r="M262">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="B263">
+        <v>8.5397777777777701</v>
+      </c>
+      <c r="C263">
+        <v>0.241632721415563</v>
+      </c>
+      <c r="D263">
+        <v>295444.02773451101</v>
+      </c>
+      <c r="E263">
+        <v>214137.07360933701</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>28101.971529179398</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>53204.982595994399</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0.14906383010715901</v>
+      </c>
+      <c r="M263">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>16.7</v>
+      </c>
+      <c r="B264">
+        <v>8.5912222222222194</v>
+      </c>
+      <c r="C264">
+        <v>0.243088340219271</v>
+      </c>
+      <c r="D264">
+        <v>300040.34785005997</v>
+      </c>
+      <c r="E264">
+        <v>216562.43906257601</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>29629.971509951902</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>53847.937277532503</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0.149034107168903</v>
+      </c>
+      <c r="M264">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>16.8</v>
+      </c>
+      <c r="B265">
+        <v>8.6426666666666598</v>
+      </c>
+      <c r="C265">
+        <v>0.24454395902297901</v>
+      </c>
+      <c r="D265">
+        <v>304732.358996959</v>
+      </c>
+      <c r="E265">
+        <v>219000.60968964599</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>31236.9957585638</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>54494.753548749599</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0.149004596201084</v>
+      </c>
+      <c r="M265">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>16.899999999999899</v>
+      </c>
+      <c r="B266">
+        <v>8.6941111111111091</v>
+      </c>
+      <c r="C266">
+        <v>0.24599957782668799</v>
+      </c>
+      <c r="D266">
+        <v>309524.78352269402</v>
+      </c>
+      <c r="E266">
+        <v>221451.576904038</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>32927.7752090098</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>55145.4314096456</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0.14897529443006299</v>
+      </c>
+      <c r="M266">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>17</v>
+      </c>
+      <c r="B267">
+        <v>8.7455555555555495</v>
+      </c>
+      <c r="C267">
+        <v>0.247455196630396</v>
+      </c>
+      <c r="D267">
+        <v>314422.32480408798</v>
+      </c>
+      <c r="E267">
+        <v>223915.33217870499</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>34707.021765162499</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>55799.970860220499</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0.148946199134743</v>
+      </c>
+      <c r="M267">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B268">
+        <v>8.7970000000000006</v>
+      </c>
+      <c r="C268">
+        <v>0.24891081543410401</v>
+      </c>
+      <c r="D268">
+        <v>319429.58907359699</v>
+      </c>
+      <c r="E268">
+        <v>226391.867045299</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>36579.350127823302</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>56458.371900474303</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>0.14891730764526501</v>
+      </c>
+      <c r="M268">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>17.2</v>
+      </c>
+      <c r="B269">
+        <v>8.8484444444444392</v>
+      </c>
+      <c r="C269">
+        <v>0.25036643423781202</v>
+      </c>
+      <c r="D269">
+        <v>324551.00291281799</v>
+      </c>
+      <c r="E269">
+        <v>228881.17309342499</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>38549.1952889858</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>57120.6345304071</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0.14888861734175099</v>
+      </c>
+      <c r="M269">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>17.3</v>
+      </c>
+      <c r="B270">
+        <v>8.8998888888888903</v>
+      </c>
+      <c r="C270">
+        <v>0.251822053041521</v>
+      </c>
+      <c r="D270">
+        <v>329790.72768688499</v>
+      </c>
+      <c r="E270">
+        <v>231383.2419699</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>40620.726966965602</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>57786.7587500187</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0.14886012565308299</v>
+      </c>
+      <c r="M270">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>17.399999999999899</v>
+      </c>
+      <c r="B271">
+        <v>8.9513333333333307</v>
+      </c>
+      <c r="C271">
+        <v>0.25327767184522898</v>
+      </c>
+      <c r="D271">
+        <v>335152.57237268199</v>
+      </c>
+      <c r="E271">
+        <v>233898.065378042</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>42797.762435331199</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>58456.744559309198</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0.14883183005571701</v>
+      </c>
+      <c r="M271">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>17.5</v>
+      </c>
+      <c r="B272">
+        <v>9.0027777777777693</v>
+      </c>
+      <c r="C272">
+        <v>0.25473329064893702</v>
+      </c>
+      <c r="D272">
+        <v>340639.90643303801</v>
+      </c>
+      <c r="E272">
+        <v>236425.63507695301</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>45083.6793978063</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>59130.591958278703</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0.148803728072537</v>
+      </c>
+      <c r="M272">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B273">
+        <v>9.0542222222222204</v>
+      </c>
+      <c r="C273">
+        <v>0.256188909452645</v>
+      </c>
+      <c r="D273">
+        <v>346255.57459505199</v>
+      </c>
+      <c r="E273">
+        <v>238965.94288082799</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>47481.330767297302</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>59808.300946926996</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0.148775817271737</v>
+      </c>
+      <c r="M273">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>17.7</v>
+      </c>
+      <c r="B274">
+        <v>9.1056666666666608</v>
+      </c>
+      <c r="C274">
+        <v>0.25764452825635298</v>
+      </c>
+      <c r="D274">
+        <v>352001.81558573898</v>
+      </c>
+      <c r="E274">
+        <v>241518.98065827301</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>49992.963402212197</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>60489.871525254297</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0.14874809526574101</v>
+      </c>
+      <c r="M274">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>17.8</v>
+      </c>
+      <c r="B275">
+        <v>9.1571111111111101</v>
+      </c>
+      <c r="C275">
+        <v>0.25910014706006201</v>
+      </c>
+      <c r="D275">
+        <v>357880.18704148702</v>
+      </c>
+      <c r="E275">
+        <v>244084.74033163299</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>52620.143016593101</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>61175.303693260503</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0.148720559710151</v>
+      </c>
+      <c r="M275">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>17.899999999999899</v>
+      </c>
+      <c r="B276">
+        <v>9.2085555555555505</v>
+      </c>
+      <c r="C276">
+        <v>0.26055576586376999</v>
+      </c>
+      <c r="D276">
+        <v>363891.49891777401</v>
+      </c>
+      <c r="E276">
+        <v>246663.21387633699</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>55363.6875904915</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>61864.597450945497</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0.14869320830273</v>
+      </c>
+      <c r="M276">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>18</v>
+      </c>
+      <c r="B277">
+        <v>9.26</v>
+      </c>
+      <c r="C277">
+        <v>0.26201138466747798</v>
+      </c>
+      <c r="D277">
+        <v>370035.75776100898</v>
+      </c>
+      <c r="E277">
+        <v>249254.39332024701</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>58223.611642452299</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>62557.752798309499</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0.148666038782411</v>
+      </c>
+      <c r="M277">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B278">
+        <v>9.3114444444444402</v>
+      </c>
+      <c r="C278">
+        <v>0.26346700347118601</v>
+      </c>
+      <c r="D278">
+        <v>376312.124147186</v>
+      </c>
+      <c r="E278">
+        <v>251858.270743028</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>61199.083668805397</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>63254.769735352398</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0.14863904892833599</v>
+      </c>
+      <c r="M278">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>18.2</v>
+      </c>
+      <c r="B279">
+        <v>9.3628888888888895</v>
+      </c>
+      <c r="C279">
+        <v>0.26492262227489399</v>
+      </c>
+      <c r="D279">
+        <v>382718.88542892598</v>
+      </c>
+      <c r="E279">
+        <v>254474.83827551801</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>64288.398891333498</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>63955.648262074203</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>0.148612236558922</v>
+      </c>
+      <c r="M279">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>18.3</v>
+      </c>
+      <c r="B280">
+        <v>9.4143333333333299</v>
+      </c>
+      <c r="C280">
+        <v>0.26637824107860297</v>
+      </c>
+      <c r="D280">
+        <v>389253.445656394</v>
+      </c>
+      <c r="E280">
+        <v>257104.088099124</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>67488.969178795203</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>64660.388378474898</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0.14858559953095399</v>
+      </c>
+      <c r="M280">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>18.399999999999899</v>
+      </c>
+      <c r="B281">
+        <v>9.4657777777777703</v>
+      </c>
+      <c r="C281">
+        <v>0.26783385988231101</v>
+      </c>
+      <c r="D281">
+        <v>395912.33414917998</v>
+      </c>
+      <c r="E281">
+        <v>259746.012445211</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>70797.331619414705</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>65368.990084554498</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0.14855913573870499</v>
+      </c>
+      <c r="M281">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>18.5</v>
+      </c>
+      <c r="B282">
+        <v>9.5172222222222196</v>
+      </c>
+      <c r="C282">
+        <v>0.26928947868601899</v>
+      </c>
+      <c r="D282">
+        <v>402691.23370450101</v>
+      </c>
+      <c r="E282">
+        <v>262400.60359451501</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>74209.176729672807</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>66081.453380313105</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>0.14853284311307999</v>
+      </c>
+      <c r="M282">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B283">
+        <v>9.56866666666666</v>
+      </c>
+      <c r="C283">
+        <v>0.27074509748972703</v>
+      </c>
+      <c r="D283">
+        <v>409585.02884899202</v>
+      </c>
+      <c r="E283">
+        <v>265067.85387656098</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>77719.3967066802</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>66797.778265750501</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0.14850671962078099</v>
+      </c>
+      <c r="M283">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>18.7</v>
+      </c>
+      <c r="B284">
+        <v>9.6201111111111093</v>
+      </c>
+      <c r="C284">
+        <v>0.27220071629343601</v>
+      </c>
+      <c r="D284">
+        <v>416587.873901602</v>
+      </c>
+      <c r="E284">
+        <v>267747.75566909101</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>81322.153491643796</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>67517.964740866897</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0.14848076326350401</v>
+      </c>
+      <c r="M284">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>18.8</v>
+      </c>
+      <c r="B285">
+        <v>9.6715555555555497</v>
+      </c>
+      <c r="C285">
+        <v>0.27365633509714399</v>
+      </c>
+      <c r="D285">
+        <v>423693.27994416602</v>
+      </c>
+      <c r="E285">
+        <v>270440.30139750103</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>85010.965741003005</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>68242.012805662103</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0.148454972077145</v>
+      </c>
+      <c r="M285">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>18.899999999999899</v>
+      </c>
+      <c r="B286">
+        <v>9.7230000000000008</v>
+      </c>
+      <c r="C286">
+        <v>0.27511195390085202</v>
+      </c>
+      <c r="D286">
+        <v>430894.21912866703</v>
+      </c>
+      <c r="E286">
+        <v>273145.483534289</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>88778.813134241194</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>68969.922460136295</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0.148429344131041</v>
+      </c>
+      <c r="M286">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>19</v>
+      </c>
+      <c r="B287">
+        <v>9.7744444444444394</v>
+      </c>
+      <c r="C287">
+        <v>0.27656757270456001</v>
+      </c>
+      <c r="D287">
+        <v>438183.24412196199</v>
+      </c>
+      <c r="E287">
+        <v>275863.29459851602</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>92618.255819156999</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>69701.693704289297</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>0.148403877527227</v>
+      </c>
+      <c r="M287">
+        <v>0.165975371634838</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>104</v>
+      </c>
+      <c r="B291">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>105</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>106</v>
+      </c>
+      <c r="B296">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>107</v>
+      </c>
+      <c r="B297">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>108</v>
+      </c>
+      <c r="B300">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>109</v>
+      </c>
+      <c r="B301">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experimenten jiswi/the one v4.xlsx
+++ b/experimenten jiswi/the one v4.xlsx
@@ -8,16 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26/experimenten jiswi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C9084F5496C41EDCFB3E6A7412F59F34150834C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BA9CEA6-DE8F-4B97-B682-0E6265950874}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_C9084F5496C41EDCFB3E6A7412F59F34150834C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0E9405C-55E1-4056-BDCF-56B533B1A4B3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last" sheetId="1" r:id="rId1"/>
     <sheet name="Varend" sheetId="2" r:id="rId2"/>
     <sheet name="Leeg" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -8185,7 +8198,9 @@
   </sheetPr>
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8199,8 +8214,8 @@
     <col min="12" max="13" width="14.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8208,7 +8223,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8216,7 +8231,7 @@
         <v>39.398000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -8224,15 +8239,19 @@
         <v>18.998999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>156.83199999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2">
+        <f>B6/B5</f>
+        <v>0.89199908182003684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -8240,7 +8259,7 @@
         <v>139.89400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -8248,7 +8267,7 @@
         <v>7.8419999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8256,7 +8275,7 @@
         <v>86.257999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -8264,12 +8283,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -8277,7 +8296,7 @@
         <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -8285,7 +8304,7 @@
         <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -8293,7 +8312,7 @@
         <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -8301,12 +8320,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -15641,8 +15660,8 @@
   </sheetPr>
   <dimension ref="A2:M302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/experimenten jiswi/the one v4.xlsx
+++ b/experimenten jiswi/the one v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26/experimenten jiswi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_C9084F5496C41EDCFB3E6A7412F59F34150834C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0E9405C-55E1-4056-BDCF-56B533B1A4B3}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_C9084F5496C41EDCFB3E6A7412F59F34150834C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1D02293-9585-4C3F-B52C-8F83F3618FFB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last" sheetId="1" r:id="rId1"/>
@@ -752,7 +752,9 @@
   </sheetPr>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8198,8 +8200,8 @@
   </sheetPr>
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8214,8 +8216,8 @@
     <col min="12" max="13" width="14.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8223,7 +8225,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8231,7 +8233,7 @@
         <v>39.398000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -8239,19 +8241,15 @@
         <v>18.998999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>156.83199999999999</v>
       </c>
-      <c r="D5" s="2">
-        <f>B6/B5</f>
-        <v>0.89199908182003684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -8259,7 +8257,7 @@
         <v>139.89400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -8267,7 +8265,7 @@
         <v>7.8419999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8275,7 +8273,7 @@
         <v>86.257999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -8283,12 +8281,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -8296,7 +8294,7 @@
         <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -8304,7 +8302,7 @@
         <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -8312,7 +8310,7 @@
         <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -8320,12 +8318,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>

--- a/experimenten jiswi/the one v4.xlsx
+++ b/experimenten jiswi/the one v4.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26/experimenten jiswi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_C9084F5496C41EDCFB3E6A7412F59F34150834C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1D02293-9585-4C3F-B52C-8F83F3618FFB}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_C9084F5496C41EDCFB3E6A7412F59F34150834C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E3D5A6D-227D-46DC-AD41-AD120B2A45A0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last" sheetId="1" r:id="rId1"/>
-    <sheet name="Varend" sheetId="2" r:id="rId2"/>
-    <sheet name="Leeg" sheetId="3" r:id="rId3"/>
+    <sheet name="Varend1%" sheetId="4" r:id="rId2"/>
+    <sheet name="Varend" sheetId="2" r:id="rId3"/>
+    <sheet name="Leeg" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="115">
   <si>
     <t>Loa  [m]</t>
   </si>
@@ -752,7 +753,7 @@
   </sheetPr>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -8194,6 +8195,7429 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551AA238-F8DC-4C9F-8ACA-AB2C85B8684D}">
+  <dimension ref="A2:M303"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>39.398000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18.998999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>156.83199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>139.89400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.8419999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>86.257999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5.9989999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5.9989999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.9989999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>16.221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>102.15</v>
+      </c>
+      <c r="C18">
+        <v>-8.8650000000000002</v>
+      </c>
+      <c r="D18">
+        <v>5.9989999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>13384.041999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>74897.298999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>60.936999999999998</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3.6459999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>60.634</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>11.263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.40479999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.45379999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3422.8580000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>58.674999999999997</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>5.9989999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>259202.46100000001</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3658200</v>
+      </c>
+      <c r="D29" s="6">
+        <v>3917400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>3936.8629999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>168.99799999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>4753.5600000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>133.80500000000001</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>13.343999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>122.589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>9.4740000000000002</v>
+      </c>
+      <c r="B45">
+        <v>38.762</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>16.135999999999999</v>
+      </c>
+      <c r="B46">
+        <v>76.896000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>22.797999999999998</v>
+      </c>
+      <c r="B47">
+        <v>108.586</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>29.459</v>
+      </c>
+      <c r="B48">
+        <v>133.22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>36.121000000000002</v>
+      </c>
+      <c r="B49">
+        <v>151.03899999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>42.781999999999996</v>
+      </c>
+      <c r="B50">
+        <v>162.54400000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49.444000000000003</v>
+      </c>
+      <c r="B51">
+        <v>168.32400000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>56.106000000000002</v>
+      </c>
+      <c r="B52">
+        <v>168.99799999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>62.767000000000003</v>
+      </c>
+      <c r="B53">
+        <v>165.20699999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>69.429000000000002</v>
+      </c>
+      <c r="B54">
+        <v>157.63999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>76.09</v>
+      </c>
+      <c r="B55">
+        <v>146.636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>82.751999999999995</v>
+      </c>
+      <c r="B56">
+        <v>131.226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>89.414000000000001</v>
+      </c>
+      <c r="B57">
+        <v>110.209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>96.075000000000003</v>
+      </c>
+      <c r="B58">
+        <v>85.033000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>102.73699999999999</v>
+      </c>
+      <c r="B59">
+        <v>63.555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>109.398</v>
+      </c>
+      <c r="B60">
+        <v>49.210999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>116.06</v>
+      </c>
+      <c r="B61">
+        <v>38.005000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>122.72199999999999</v>
+      </c>
+      <c r="B62">
+        <v>27.501000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>129.38300000000001</v>
+      </c>
+      <c r="B63">
+        <v>16.917999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>136.04499999999999</v>
+      </c>
+      <c r="B64">
+        <v>6.8440000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>142.70599999999999</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-10.010999999999999</v>
+      </c>
+      <c r="B69">
+        <v>221.179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-1.915</v>
+      </c>
+      <c r="B70">
+        <v>348.32499999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>6.18</v>
+      </c>
+      <c r="B71">
+        <v>449.20800000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>14.275</v>
+      </c>
+      <c r="B72">
+        <v>526.548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>22.37</v>
+      </c>
+      <c r="B73">
+        <v>583.82299999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>30.466000000000001</v>
+      </c>
+      <c r="B74">
+        <v>623.89700000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>38.561</v>
+      </c>
+      <c r="B75">
+        <v>649.08900000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>46.655999999999999</v>
+      </c>
+      <c r="B76">
+        <v>661.31200000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>54.750999999999998</v>
+      </c>
+      <c r="B77">
+        <v>662.16300000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>62.847000000000001</v>
+      </c>
+      <c r="B78">
+        <v>652.995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>70.941999999999993</v>
+      </c>
+      <c r="B79">
+        <v>634.93499999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79.037000000000006</v>
+      </c>
+      <c r="B80">
+        <v>607.16499999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>87.132000000000005</v>
+      </c>
+      <c r="B81">
+        <v>564.56200000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>95.227999999999994</v>
+      </c>
+      <c r="B82">
+        <v>502.54399999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>103.32299999999999</v>
+      </c>
+      <c r="B83">
+        <v>433.79500000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>111.41800000000001</v>
+      </c>
+      <c r="B84">
+        <v>370.60700000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>119.51300000000001</v>
+      </c>
+      <c r="B85">
+        <v>307.90300000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>127.608</v>
+      </c>
+      <c r="B86">
+        <v>242.173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>135.70400000000001</v>
+      </c>
+      <c r="B87">
+        <v>172.78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>143.79900000000001</v>
+      </c>
+      <c r="B88">
+        <v>100.56100000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>151.89400000000001</v>
+      </c>
+      <c r="B89">
+        <v>34.771999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>159.989</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>122.589</v>
+      </c>
+      <c r="B94">
+        <v>283.36200000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>131.93899999999999</v>
+      </c>
+      <c r="B95">
+        <v>205.49600000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>141.28899999999999</v>
+      </c>
+      <c r="B96">
+        <v>123.02500000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>150.63900000000001</v>
+      </c>
+      <c r="B97">
+        <v>43.680999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>159.989</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" t="s">
+        <v>51</v>
+      </c>
+      <c r="F102" t="s">
+        <v>52</v>
+      </c>
+      <c r="G102" t="s">
+        <v>53</v>
+      </c>
+      <c r="H102" t="s">
+        <v>54</v>
+      </c>
+      <c r="I102" t="s">
+        <v>55</v>
+      </c>
+      <c r="J102" t="s">
+        <v>56</v>
+      </c>
+      <c r="K102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>-10.010999999999999</v>
+      </c>
+      <c r="B103">
+        <v>75.215000000000003</v>
+      </c>
+      <c r="C103">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D103">
+        <v>-10.010999999999999</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>15.750999999999999</v>
+      </c>
+      <c r="G103">
+        <v>9.1289999999999996</v>
+      </c>
+      <c r="H103">
+        <v>0.83</v>
+      </c>
+      <c r="I103">
+        <v>8.2989999999999995</v>
+      </c>
+      <c r="J103">
+        <v>11.634</v>
+      </c>
+      <c r="K103">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>-1.915</v>
+      </c>
+      <c r="B104">
+        <v>83.489000000000004</v>
+      </c>
+      <c r="C104">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D104">
+        <v>-1.915</v>
+      </c>
+      <c r="E104">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F104">
+        <v>14.115</v>
+      </c>
+      <c r="G104">
+        <v>12.757</v>
+      </c>
+      <c r="H104">
+        <v>2.032</v>
+      </c>
+      <c r="I104">
+        <v>10.725</v>
+      </c>
+      <c r="J104">
+        <v>7.61</v>
+      </c>
+      <c r="K104">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>6.18</v>
+      </c>
+      <c r="B105">
+        <v>90.703000000000003</v>
+      </c>
+      <c r="C105">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D105">
+        <v>6.18</v>
+      </c>
+      <c r="E105">
+        <v>-1E-3</v>
+      </c>
+      <c r="F105">
+        <v>12.956</v>
+      </c>
+      <c r="G105">
+        <v>16.484999999999999</v>
+      </c>
+      <c r="H105">
+        <v>3.254</v>
+      </c>
+      <c r="I105">
+        <v>13.23</v>
+      </c>
+      <c r="J105">
+        <v>5.0579999999999998</v>
+      </c>
+      <c r="K105">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>14.275</v>
+      </c>
+      <c r="B106">
+        <v>96.087999999999994</v>
+      </c>
+      <c r="C106">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D106">
+        <v>14.275</v>
+      </c>
+      <c r="E106">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="F106">
+        <v>12.138</v>
+      </c>
+      <c r="G106">
+        <v>19.677</v>
+      </c>
+      <c r="H106">
+        <v>4.3280000000000003</v>
+      </c>
+      <c r="I106">
+        <v>15.349</v>
+      </c>
+      <c r="J106">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="K106">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>22.37</v>
+      </c>
+      <c r="B107">
+        <v>99.930999999999997</v>
+      </c>
+      <c r="C107">
+        <v>0.1</v>
+      </c>
+      <c r="D107">
+        <v>22.37</v>
+      </c>
+      <c r="E107">
+        <v>-1E-3</v>
+      </c>
+      <c r="F107">
+        <v>11.555</v>
+      </c>
+      <c r="G107">
+        <v>22.206</v>
+      </c>
+      <c r="H107">
+        <v>5.202</v>
+      </c>
+      <c r="I107">
+        <v>17.003</v>
+      </c>
+      <c r="J107">
+        <v>2.08</v>
+      </c>
+      <c r="K107">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>30.466000000000001</v>
+      </c>
+      <c r="B108">
+        <v>102.52200000000001</v>
+      </c>
+      <c r="C108">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D108">
+        <v>30.466000000000001</v>
+      </c>
+      <c r="E108">
+        <v>2E-3</v>
+      </c>
+      <c r="F108">
+        <v>11.157999999999999</v>
+      </c>
+      <c r="G108">
+        <v>24.042999999999999</v>
+      </c>
+      <c r="H108">
+        <v>5.8609999999999998</v>
+      </c>
+      <c r="I108">
+        <v>18.183</v>
+      </c>
+      <c r="J108">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="K108">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>38.561</v>
+      </c>
+      <c r="B109">
+        <v>104.07599999999999</v>
+      </c>
+      <c r="C109">
+        <v>0.104</v>
+      </c>
+      <c r="D109">
+        <v>38.561</v>
+      </c>
+      <c r="E109">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F109">
+        <v>10.913</v>
+      </c>
+      <c r="G109">
+        <v>25.181000000000001</v>
+      </c>
+      <c r="H109">
+        <v>6.3</v>
+      </c>
+      <c r="I109">
+        <v>18.882000000000001</v>
+      </c>
+      <c r="J109">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="K109">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>46.655999999999999</v>
+      </c>
+      <c r="B110">
+        <v>104.751</v>
+      </c>
+      <c r="C110">
+        <v>0.105</v>
+      </c>
+      <c r="D110">
+        <v>46.655999999999999</v>
+      </c>
+      <c r="E110">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F110">
+        <v>10.781000000000001</v>
+      </c>
+      <c r="G110">
+        <v>25.696999999999999</v>
+      </c>
+      <c r="H110">
+        <v>6.5469999999999997</v>
+      </c>
+      <c r="I110">
+        <v>19.149000000000001</v>
+      </c>
+      <c r="J110">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="K110">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>54.750999999999998</v>
+      </c>
+      <c r="B111">
+        <v>104.66200000000001</v>
+      </c>
+      <c r="C111">
+        <v>0.105</v>
+      </c>
+      <c r="D111">
+        <v>54.750999999999998</v>
+      </c>
+      <c r="E111">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F111">
+        <v>10.754</v>
+      </c>
+      <c r="G111">
+        <v>25.637</v>
+      </c>
+      <c r="H111">
+        <v>6.6180000000000003</v>
+      </c>
+      <c r="I111">
+        <v>19.018999999999998</v>
+      </c>
+      <c r="J111">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="K111">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>62.847000000000001</v>
+      </c>
+      <c r="B112">
+        <v>103.899</v>
+      </c>
+      <c r="C112">
+        <v>0.104</v>
+      </c>
+      <c r="D112">
+        <v>62.847000000000001</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>10.824999999999999</v>
+      </c>
+      <c r="G112">
+        <v>25.071000000000002</v>
+      </c>
+      <c r="H112">
+        <v>6.5279999999999996</v>
+      </c>
+      <c r="I112">
+        <v>18.542999999999999</v>
+      </c>
+      <c r="J112">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K112">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>70.941999999999993</v>
+      </c>
+      <c r="B113">
+        <v>102.532</v>
+      </c>
+      <c r="C113">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D113">
+        <v>70.941999999999993</v>
+      </c>
+      <c r="E113">
+        <v>1E-3</v>
+      </c>
+      <c r="F113">
+        <v>10.968999999999999</v>
+      </c>
+      <c r="G113">
+        <v>24.094000000000001</v>
+      </c>
+      <c r="H113">
+        <v>6.3230000000000004</v>
+      </c>
+      <c r="I113">
+        <v>17.771000000000001</v>
+      </c>
+      <c r="J113">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K113">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>79.037000000000006</v>
+      </c>
+      <c r="B114">
+        <v>100.518</v>
+      </c>
+      <c r="C114">
+        <v>0.1</v>
+      </c>
+      <c r="D114">
+        <v>79.037000000000006</v>
+      </c>
+      <c r="E114">
+        <v>-1E-3</v>
+      </c>
+      <c r="F114">
+        <v>11.212</v>
+      </c>
+      <c r="G114">
+        <v>22.654</v>
+      </c>
+      <c r="H114">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="I114">
+        <v>16.661999999999999</v>
+      </c>
+      <c r="J114">
+        <v>0.12</v>
+      </c>
+      <c r="K114">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>87.132000000000005</v>
+      </c>
+      <c r="B115">
+        <v>97.531000000000006</v>
+      </c>
+      <c r="C115">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D115">
+        <v>87.132000000000005</v>
+      </c>
+      <c r="E115">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F115">
+        <v>11.571999999999999</v>
+      </c>
+      <c r="G115">
+        <v>20.581</v>
+      </c>
+      <c r="H115">
+        <v>5.4850000000000003</v>
+      </c>
+      <c r="I115">
+        <v>15.095000000000001</v>
+      </c>
+      <c r="J115">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="K115">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>95.227999999999994</v>
+      </c>
+      <c r="B116">
+        <v>93.105999999999995</v>
+      </c>
+      <c r="C116">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D116">
+        <v>95.227999999999994</v>
+      </c>
+      <c r="E116">
+        <v>-1E-3</v>
+      </c>
+      <c r="F116">
+        <v>12.026999999999999</v>
+      </c>
+      <c r="G116">
+        <v>17.667999999999999</v>
+      </c>
+      <c r="H116">
+        <v>4.7590000000000003</v>
+      </c>
+      <c r="I116">
+        <v>12.909000000000001</v>
+      </c>
+      <c r="J116">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="K116">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>103.32299999999999</v>
+      </c>
+      <c r="B117">
+        <v>87.38</v>
+      </c>
+      <c r="C117">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D117">
+        <v>103.32299999999999</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>12.351000000000001</v>
+      </c>
+      <c r="G117">
+        <v>14.260999999999999</v>
+      </c>
+      <c r="H117">
+        <v>4.0540000000000003</v>
+      </c>
+      <c r="I117">
+        <v>10.207000000000001</v>
+      </c>
+      <c r="J117">
+        <v>0.15</v>
+      </c>
+      <c r="K117">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>111.41800000000001</v>
+      </c>
+      <c r="B118">
+        <v>80.843000000000004</v>
+      </c>
+      <c r="C118">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D118">
+        <v>111.41800000000001</v>
+      </c>
+      <c r="E118">
+        <v>-1E-3</v>
+      </c>
+      <c r="F118">
+        <v>12.465</v>
+      </c>
+      <c r="G118">
+        <v>11.041</v>
+      </c>
+      <c r="H118">
+        <v>3.5329999999999999</v>
+      </c>
+      <c r="I118">
+        <v>7.508</v>
+      </c>
+      <c r="J118">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K118">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>119.51300000000001</v>
+      </c>
+      <c r="B119">
+        <v>73.8</v>
+      </c>
+      <c r="C119">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D119">
+        <v>119.51300000000001</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>12.516999999999999</v>
+      </c>
+      <c r="G119">
+        <v>8.2119999999999997</v>
+      </c>
+      <c r="H119">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="I119">
+        <v>5.1509999999999998</v>
+      </c>
+      <c r="J119">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K119">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>127.608</v>
+      </c>
+      <c r="B120">
+        <v>65.230999999999995</v>
+      </c>
+      <c r="C120">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D120">
+        <v>127.608</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>12.782</v>
+      </c>
+      <c r="G120">
+        <v>5.6340000000000003</v>
+      </c>
+      <c r="H120">
+        <v>2.4089999999999998</v>
+      </c>
+      <c r="I120">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="J120">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="K120">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>135.70400000000001</v>
+      </c>
+      <c r="B121">
+        <v>54.816000000000003</v>
+      </c>
+      <c r="C121">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D121">
+        <v>135.70400000000001</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>13.391999999999999</v>
+      </c>
+      <c r="G121">
+        <v>3.355</v>
+      </c>
+      <c r="H121">
+        <v>1.605</v>
+      </c>
+      <c r="I121">
+        <v>1.75</v>
+      </c>
+      <c r="J121">
+        <v>3.1970000000000001</v>
+      </c>
+      <c r="K121">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>143.79900000000001</v>
+      </c>
+      <c r="B122">
+        <v>41.88</v>
+      </c>
+      <c r="C122">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D122">
+        <v>143.79900000000001</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>14.523999999999999</v>
+      </c>
+      <c r="G122">
+        <v>1.494</v>
+      </c>
+      <c r="H122">
+        <v>0.77</v>
+      </c>
+      <c r="I122">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="J122">
+        <v>6.5679999999999996</v>
+      </c>
+      <c r="K122">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>151.89400000000001</v>
+      </c>
+      <c r="B123">
+        <v>24.617999999999999</v>
+      </c>
+      <c r="C123">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D123">
+        <v>151.89400000000001</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>16.5</v>
+      </c>
+      <c r="G123">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H123">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I123">
+        <v>0.157</v>
+      </c>
+      <c r="J123">
+        <v>12.010999999999999</v>
+      </c>
+      <c r="K123">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>159.989</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>159.989</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>18.998999999999999</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B126">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>60</v>
+      </c>
+      <c r="B127">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>61</v>
+      </c>
+      <c r="B128">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129">
+        <v>5.9989999999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>64</v>
+      </c>
+      <c r="B131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>65</v>
+      </c>
+      <c r="B132">
+        <v>78416.114000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>66</v>
+      </c>
+      <c r="B133">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>68</v>
+      </c>
+      <c r="B136">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>69</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>70</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>71</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>72</v>
+      </c>
+      <c r="B141">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>73</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>75</v>
+      </c>
+      <c r="B144">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>77</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>83</v>
+      </c>
+      <c r="B152" t="s">
+        <v>84</v>
+      </c>
+      <c r="C152" t="s">
+        <v>85</v>
+      </c>
+      <c r="D152" t="s">
+        <v>86</v>
+      </c>
+      <c r="E152" t="s">
+        <v>87</v>
+      </c>
+      <c r="F152" t="s">
+        <v>88</v>
+      </c>
+      <c r="G152" t="s">
+        <v>89</v>
+      </c>
+      <c r="H152" t="s">
+        <v>90</v>
+      </c>
+      <c r="I152" t="s">
+        <v>91</v>
+      </c>
+      <c r="J152" t="s">
+        <v>92</v>
+      </c>
+      <c r="K152" t="s">
+        <v>93</v>
+      </c>
+      <c r="L152" t="s">
+        <v>94</v>
+      </c>
+      <c r="M152" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>19</v>
+      </c>
+      <c r="B153">
+        <v>9.7744444444444394</v>
+      </c>
+      <c r="C153">
+        <v>0.26385091651051801</v>
+      </c>
+      <c r="D153">
+        <v>567203.41315042297</v>
+      </c>
+      <c r="E153">
+        <v>354066.718730286</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>127044.109328922</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>86092.585091214205</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0.163763749790859</v>
+      </c>
+      <c r="M153">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>40</v>
+      </c>
+      <c r="B155">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>83</v>
+      </c>
+      <c r="B156" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" t="s">
+        <v>85</v>
+      </c>
+      <c r="D156" t="s">
+        <v>86</v>
+      </c>
+      <c r="E156" t="s">
+        <v>87</v>
+      </c>
+      <c r="F156" t="s">
+        <v>88</v>
+      </c>
+      <c r="G156" t="s">
+        <v>89</v>
+      </c>
+      <c r="H156" t="s">
+        <v>90</v>
+      </c>
+      <c r="I156" t="s">
+        <v>91</v>
+      </c>
+      <c r="J156" t="s">
+        <v>92</v>
+      </c>
+      <c r="K156" t="s">
+        <v>93</v>
+      </c>
+      <c r="L156" t="s">
+        <v>94</v>
+      </c>
+      <c r="M156" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157">
+        <v>3.0866666666666598</v>
+      </c>
+      <c r="C157">
+        <v>8.3321342055953304E-2</v>
+      </c>
+      <c r="D157">
+        <v>49490.174318747799</v>
+      </c>
+      <c r="E157">
+        <v>40904.755065381702</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>9.1057657244240798E-3</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>8585.4101476003107</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0.16907391566681601</v>
+      </c>
+      <c r="M157">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>6.0999999999999899</v>
+      </c>
+      <c r="B158">
+        <v>3.13811111111111</v>
+      </c>
+      <c r="C158">
+        <v>8.4710031090219198E-2</v>
+      </c>
+      <c r="D158">
+        <v>51061.190420432496</v>
+      </c>
+      <c r="E158">
+        <v>42187.201842321701</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>1.32561049759968E-2</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>8873.9753220057592</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0.168988276693816</v>
+      </c>
+      <c r="M158">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>6.2</v>
+      </c>
+      <c r="B159">
+        <v>3.1895555555555499</v>
+      </c>
+      <c r="C159">
+        <v>8.6098720124485106E-2</v>
+      </c>
+      <c r="D159">
+        <v>52655.450899650197</v>
+      </c>
+      <c r="E159">
+        <v>43488.121653801201</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>1.9077133611708499E-2</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>9167.3101687154394</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0.168904329338153</v>
+      </c>
+      <c r="M159">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>6.2999999999999901</v>
+      </c>
+      <c r="B160">
+        <v>3.2410000000000001</v>
+      </c>
+      <c r="C160">
+        <v>8.7487409158751001E-2</v>
+      </c>
+      <c r="D160">
+        <v>54272.9208502939</v>
+      </c>
+      <c r="E160">
+        <v>44807.479008272698</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>2.71542918301018E-2</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>9465.4146877293406</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0.16882201334344399</v>
+      </c>
+      <c r="M160">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>6.4</v>
+      </c>
+      <c r="B161">
+        <v>3.2924444444444401</v>
+      </c>
+      <c r="C161">
+        <v>8.8876098193016895E-2</v>
+      </c>
+      <c r="D161">
+        <v>55913.566208183103</v>
+      </c>
+      <c r="E161">
+        <v>46145.239081164102</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>3.82479715756859E-2</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>9768.2888790474608</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0.16874127152066801</v>
+      </c>
+      <c r="M161">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>6.5</v>
+      </c>
+      <c r="B162">
+        <v>3.34388888888888</v>
+      </c>
+      <c r="C162">
+        <v>9.0264787227282706E-2</v>
+      </c>
+      <c r="D162">
+        <v>57577.353771351998</v>
+      </c>
+      <c r="E162">
+        <v>47501.3676919625</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>5.3336719706952598E-2</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>10075.9327426698</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0.16866204954669201</v>
+      </c>
+      <c r="M162">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>6.5999999999999899</v>
+      </c>
+      <c r="B163">
+        <v>3.3953333333333302</v>
+      </c>
+      <c r="C163">
+        <v>9.16534762615486E-2</v>
+      </c>
+      <c r="D163">
+        <v>59264.251229817499</v>
+      </c>
+      <c r="E163">
+        <v>48875.8312824311</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>7.3668789971213594E-2</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>10388.3462785963</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0.16858429577891301</v>
+      </c>
+      <c r="M163">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>6.7</v>
+      </c>
+      <c r="B164">
+        <v>3.4467777777777702</v>
+      </c>
+      <c r="C164">
+        <v>9.3042165295814494E-2</v>
+      </c>
+      <c r="D164">
+        <v>60974.227205878902</v>
+      </c>
+      <c r="E164">
+        <v>50268.596895884803</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0.10082316684798</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>10705.529486827099</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0.16850796108450999</v>
+      </c>
+      <c r="M164">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>6.7999999999999901</v>
+      </c>
+      <c r="B165">
+        <v>3.4982222222222199</v>
+      </c>
+      <c r="C165">
+        <v>9.4430854330080402E-2</v>
+      </c>
+      <c r="D165">
+        <v>62707.251306073202</v>
+      </c>
+      <c r="E165">
+        <v>51679.632157458502</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0.13678125251435899</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>11027.482367362099</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0.16843299868294001</v>
+      </c>
+      <c r="M165">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>6.9</v>
+      </c>
+      <c r="B166">
+        <v>3.5496666666666599</v>
+      </c>
+      <c r="C166">
+        <v>9.5819543364346296E-2</v>
+      </c>
+      <c r="D166">
+        <v>64463.294185976803</v>
+      </c>
+      <c r="E166">
+        <v>53108.905255306097</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0.18401046931606299</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>11354.2049202014</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0.16835936400048601</v>
+      </c>
+      <c r="M166">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167">
+        <v>3.60111111111111</v>
+      </c>
+      <c r="C167">
+        <v>9.7208232398612204E-2</v>
+      </c>
+      <c r="D167">
+        <v>66242.327629102394</v>
+      </c>
+      <c r="E167">
+        <v>54556.384922674697</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0.245561082861223</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>11685.6971453448</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0.168287014535768</v>
+      </c>
+      <c r="M167">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>7.0999999999999899</v>
+      </c>
+      <c r="B168">
+        <v>3.65255555555555</v>
+      </c>
+      <c r="C168">
+        <v>9.8596921432878099E-2</v>
+      </c>
+      <c r="D168">
+        <v>68044.324641185594</v>
+      </c>
+      <c r="E168">
+        <v>56022.040420799101</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0.32517759396566498</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>12021.9590427925</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0.168215909735244</v>
+      </c>
+      <c r="M168">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>7.2</v>
+      </c>
+      <c r="B169">
+        <v>3.7040000000000002</v>
+      </c>
+      <c r="C169">
+        <v>9.9985610467144007E-2</v>
+      </c>
+      <c r="D169">
+        <v>69869.259561194005</v>
+      </c>
+      <c r="E169">
+        <v>57505.841522569499</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0.42742608007718502</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>12362.990612544399</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0.16814601087783501</v>
+      </c>
+      <c r="M169">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>7.2999999999999901</v>
+      </c>
+      <c r="B170">
+        <v>3.7554444444444401</v>
+      </c>
+      <c r="C170">
+        <v>0.101374299501409</v>
+      </c>
+      <c r="D170">
+        <v>71717.108190414801</v>
+      </c>
+      <c r="E170">
+        <v>59007.758496926603</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0.55783888755838895</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>12708.7918546005</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0.16807728096788299</v>
+      </c>
+      <c r="M170">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>7.4</v>
+      </c>
+      <c r="B171">
+        <v>3.8068888888888801</v>
+      </c>
+      <c r="C171">
+        <v>0.102762988535675</v>
+      </c>
+      <c r="D171">
+        <v>73587.847940987893</v>
+      </c>
+      <c r="E171">
+        <v>60527.762093942503</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0.72307808455253197</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>13059.3627689609</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0.16800968463574201</v>
+      </c>
+      <c r="M171">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>7.5</v>
+      </c>
+      <c r="B172">
+        <v>3.8583333333333298</v>
+      </c>
+      <c r="C172">
+        <v>0.104151677569941</v>
+      </c>
+      <c r="D172">
+        <v>75481.458005251596</v>
+      </c>
+      <c r="E172">
+        <v>62065.823530546601</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0.93111907951928896</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>13414.703355625399</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0.16794318804535199</v>
+      </c>
+      <c r="M172">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>7.5999999999999899</v>
+      </c>
+      <c r="B173">
+        <v>3.9097777777777698</v>
+      </c>
+      <c r="C173">
+        <v>0.105540366604207</v>
+      </c>
+      <c r="D173">
+        <v>77397.919547250494</v>
+      </c>
+      <c r="E173">
+        <v>63621.914476863698</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>1.19145579252617</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>13774.813614594201</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0.167877758808232</v>
+      </c>
+      <c r="M173">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>7.7</v>
+      </c>
+      <c r="B174">
+        <v>3.96122222222222</v>
+      </c>
+      <c r="C174">
+        <v>0.10692905563847301</v>
+      </c>
+      <c r="D174">
+        <v>79337.215917728303</v>
+      </c>
+      <c r="E174">
+        <v>65196.007043126097</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>1.5153287348303699</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>14139.6935458672</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0.167813365903353</v>
+      </c>
+      <c r="M174">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>7.7999999999999901</v>
+      </c>
+      <c r="B175">
+        <v>4.0126666666666599</v>
+      </c>
+      <c r="C175">
+        <v>0.108317744672739</v>
+      </c>
+      <c r="D175">
+        <v>81299.332893883999</v>
+      </c>
+      <c r="E175">
+        <v>66788.0737671323</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>1.91597730719468</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>14509.343149444499</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0.16774997960243199</v>
+      </c>
+      <c r="M175">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>7.9</v>
+      </c>
+      <c r="B176">
+        <v>4.0641111111111101</v>
+      </c>
+      <c r="C176">
+        <v>0.109706433707005</v>
+      </c>
+      <c r="D176">
+        <v>83284.258945114198</v>
+      </c>
+      <c r="E176">
+        <v>68398.087602219297</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>2.4089175689480302</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>14883.7624253259</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0.16768757140020901</v>
+      </c>
+      <c r="M176">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>8</v>
+      </c>
+      <c r="B177">
+        <v>4.1155555555555496</v>
+      </c>
+      <c r="C177">
+        <v>0.11109512274127099</v>
+      </c>
+      <c r="D177">
+        <v>85291.985525894197</v>
+      </c>
+      <c r="E177">
+        <v>70026.021905724105</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>3.0122466584046101</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>15262.9513735116</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0.16762611394931401</v>
+      </c>
+      <c r="M177">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>8.0999999999999908</v>
+      </c>
+      <c r="B178">
+        <v>4.16699999999999</v>
+      </c>
+      <c r="C178">
+        <v>0.112483811775537</v>
+      </c>
+      <c r="D178">
+        <v>87322.507396869303</v>
+      </c>
+      <c r="E178">
+        <v>71671.850427906305</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>3.7469749614435499</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>15646.9099940015</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0.16756558099937299</v>
+      </c>
+      <c r="M178">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>8.1999999999999904</v>
+      </c>
+      <c r="B179">
+        <v>4.2184444444444402</v>
+      </c>
+      <c r="C179">
+        <v>0.113872500809802</v>
+      </c>
+      <c r="D179">
+        <v>89375.822975134506</v>
+      </c>
+      <c r="E179">
+        <v>73335.5473013093</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>4.63738702952298</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>16035.6382867957</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0.16750594734002899</v>
+      </c>
+      <c r="M179">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B180">
+        <v>4.2698888888888797</v>
+      </c>
+      <c r="C180">
+        <v>0.115261189844068</v>
+      </c>
+      <c r="D180">
+        <v>91451.934714572795</v>
+      </c>
+      <c r="E180">
+        <v>75017.087030536801</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>5.7114321419989</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>16429.136251894</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0.167447188747576</v>
+      </c>
+      <c r="M180">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>8.4</v>
+      </c>
+      <c r="B181">
+        <v>4.3213333333333299</v>
+      </c>
+      <c r="C181">
+        <v>0.116649878878334</v>
+      </c>
+      <c r="D181">
+        <v>93550.849517011695</v>
+      </c>
+      <c r="E181">
+        <v>76716.444482423802</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>7.0011452912954901</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>16827.403889296598</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0.16738928193493799</v>
+      </c>
+      <c r="M181">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>8.5</v>
+      </c>
+      <c r="B182">
+        <v>4.3727777777777703</v>
+      </c>
+      <c r="C182">
+        <v>0.11803856791260001</v>
+      </c>
+      <c r="D182">
+        <v>95672.579174830506</v>
+      </c>
+      <c r="E182">
+        <v>78433.594876582807</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>8.5430992442903104</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>17230.441199003399</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0.167332204504755</v>
+      </c>
+      <c r="M182">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>8.5999999999999908</v>
+      </c>
+      <c r="B183">
+        <v>4.4242222222222196</v>
+      </c>
+      <c r="C183">
+        <v>0.119427256946866</v>
+      </c>
+      <c r="D183">
+        <v>97817.140845519898</v>
+      </c>
+      <c r="E183">
+        <v>80168.513776305103</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>10.378888200370399</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>17638.248181014402</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0.16727593490533399</v>
+      </c>
+      <c r="M183">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>8.6999999999999904</v>
+      </c>
+      <c r="B184">
+        <v>4.47566666666666</v>
+      </c>
+      <c r="C184">
+        <v>0.120815945981132</v>
+      </c>
+      <c r="D184">
+        <v>99984.557558558998</v>
+      </c>
+      <c r="E184">
+        <v>81921.177079802103</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>12.555643427191301</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>18050.8248353296</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0.167220452389271</v>
+      </c>
+      <c r="M184">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B185">
+        <v>4.5271111111111102</v>
+      </c>
+      <c r="C185">
+        <v>0.12220463501539799</v>
+      </c>
+      <c r="D185">
+        <v>102174.858754827</v>
+      </c>
+      <c r="E185">
+        <v>83691.561011768004</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>15.126581110460499</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>18468.1711619491</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0.16716573697454801</v>
+      </c>
+      <c r="M185">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>8.9</v>
+      </c>
+      <c r="B186">
+        <v>4.5785555555555497</v>
+      </c>
+      <c r="C186">
+        <v>0.123593324049664</v>
+      </c>
+      <c r="D186">
+        <v>104388.080858627</v>
+      </c>
+      <c r="E186">
+        <v>85479.642115249095</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>18.151582505353801</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>18890.287160872798</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0.16711176940792799</v>
+      </c>
+      <c r="M186">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>9</v>
+      </c>
+      <c r="B187">
+        <v>4.63</v>
+      </c>
+      <c r="C187">
+        <v>0.12498201308393</v>
+      </c>
+      <c r="D187">
+        <v>106624.26788223301</v>
+      </c>
+      <c r="E187">
+        <v>87285.397243807194</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>21.697806325711898</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>19317.172832100699</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0.16705853113050101</v>
+      </c>
+      <c r="M187">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>9.0999999999999908</v>
+      </c>
+      <c r="B188">
+        <v>4.6814444444444403</v>
+      </c>
+      <c r="C188">
+        <v>0.12637070211819501</v>
+      </c>
+      <c r="D188">
+        <v>108883.472062746</v>
+      </c>
+      <c r="E188">
+        <v>89108.8035539595</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>25.840333154228901</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>19748.8281756328</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0.16700600424520601</v>
+      </c>
+      <c r="M188">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>9.1999999999999904</v>
+      </c>
+      <c r="B189">
+        <v>4.7328888888888798</v>
+      </c>
+      <c r="C189">
+        <v>0.12775939115246099</v>
+      </c>
+      <c r="D189">
+        <v>111165.75453085901</v>
+      </c>
+      <c r="E189">
+        <v>90949.838497886201</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>30.6628415036704</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>20185.253191469099</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0.16695417148623201</v>
+      </c>
+      <c r="M189">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B190">
+        <v>4.78433333333333</v>
+      </c>
+      <c r="C190">
+        <v>0.12914808018672699</v>
+      </c>
+      <c r="D190">
+        <v>113471.186011007</v>
+      </c>
+      <c r="E190">
+        <v>92808.479816390405</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>36.258315006940499</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>20626.447879609699</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0.16690301619013301</v>
+      </c>
+      <c r="M190">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>9.4</v>
+      </c>
+      <c r="B191">
+        <v>4.8357777777777704</v>
+      </c>
+      <c r="C191">
+        <v>0.130536769220993</v>
+      </c>
+      <c r="D191">
+        <v>115799.847552219</v>
+      </c>
+      <c r="E191">
+        <v>94684.705532100896</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>42.7297800636982</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>21072.412240054498</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0.16685252226857</v>
+      </c>
+      <c r="M191">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>9.5</v>
+      </c>
+      <c r="B192">
+        <v>4.8872222222222197</v>
+      </c>
+      <c r="C192">
+        <v>0.131925458255259</v>
+      </c>
+      <c r="D192">
+        <v>118151.831288834</v>
+      </c>
+      <c r="E192">
+        <v>96578.493942906396</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>50.191073124278702</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>21523.1462728035</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0.16680267418256101</v>
+      </c>
+      <c r="M192">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>9.5999999999999908</v>
+      </c>
+      <c r="B193">
+        <v>4.9386666666666601</v>
+      </c>
+      <c r="C193">
+        <v>0.13331414728952501</v>
+      </c>
+      <c r="D193">
+        <v>120527.24123011599</v>
+      </c>
+      <c r="E193">
+        <v>98489.823615610498</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>58.767636648902901</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>21978.6499778568</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0.166753456918139</v>
+      </c>
+      <c r="M193">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>9.6999999999999904</v>
+      </c>
+      <c r="B194">
+        <v>4.9901111111111103</v>
+      </c>
+      <c r="C194">
+        <v>0.13470283632379099</v>
+      </c>
+      <c r="D194">
+        <v>122926.194077655</v>
+      </c>
+      <c r="E194">
+        <v>100418.673379798</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>68.597342642554906</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>22438.9233552142</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0.16670485596333601</v>
+      </c>
+      <c r="M194">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B195">
+        <v>5.0415555555555498</v>
+      </c>
+      <c r="C195">
+        <v>0.13609152535805699</v>
+      </c>
+      <c r="D195">
+        <v>125348.820069315</v>
+      </c>
+      <c r="E195">
+        <v>102365.02232190401</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>79.8313425345506</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>22903.9664048759</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0.16665685728639701</v>
+      </c>
+      <c r="M195">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>9.9</v>
+      </c>
+      <c r="B196">
+        <v>5.093</v>
+      </c>
+      <c r="C196">
+        <v>0.137480214392323</v>
+      </c>
+      <c r="D196">
+        <v>127795.263848366</v>
+      </c>
+      <c r="E196">
+        <v>104328.84977947699</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>92.634942047659194</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>23373.7791268418</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0.16660944731515701</v>
+      </c>
+      <c r="M196">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>10</v>
+      </c>
+      <c r="B197">
+        <v>5.1444444444444404</v>
+      </c>
+      <c r="C197">
+        <v>0.138868903426588</v>
+      </c>
+      <c r="D197">
+        <v>130265.68535632</v>
+      </c>
+      <c r="E197">
+        <v>106310.135335623</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>107.18849958505299</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>23848.361521111899</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0.16656261291749699</v>
+      </c>
+      <c r="M197">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>10.1</v>
+      </c>
+      <c r="B198">
+        <v>5.1958888888888799</v>
+      </c>
+      <c r="C198">
+        <v>0.14025759246085401</v>
+      </c>
+      <c r="D198">
+        <v>132760.26074787701</v>
+      </c>
+      <c r="E198">
+        <v>108308.85881363699</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>123.688346553278</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>24327.713587686299</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0.16651634138282401</v>
+      </c>
+      <c r="M198">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>10.1999999999999</v>
+      </c>
+      <c r="B199">
+        <v>5.2473333333333301</v>
+      </c>
+      <c r="C199">
+        <v>0.14164628149512001</v>
+      </c>
+      <c r="D199">
+        <v>135279.183326292</v>
+      </c>
+      <c r="E199">
+        <v>110325.000271793</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>142.34772793359701</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>24811.835326564898</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0.1664706204045</v>
+      </c>
+      <c r="M199">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>10.3</v>
+      </c>
+      <c r="B200">
+        <v>5.2987777777777696</v>
+      </c>
+      <c r="C200">
+        <v>0.14303497052938599</v>
+      </c>
+      <c r="D200">
+        <v>137822.66449736399</v>
+      </c>
+      <c r="E200">
+        <v>112358.539998304</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>163.397761312044</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>25300.7267377477</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0.16642543806317101</v>
+      </c>
+      <c r="M200">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>10.4</v>
+      </c>
+      <c r="B201">
+        <v>5.3502222222222198</v>
+      </c>
+      <c r="C201">
+        <v>0.144423659563652</v>
+      </c>
+      <c r="D201">
+        <v>140390.93474015899</v>
+      </c>
+      <c r="E201">
+        <v>114409.45850643799</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>187.08841248694</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>25794.387821234701</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0.16638078281094301</v>
+      </c>
+      <c r="M201">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>10.5</v>
+      </c>
+      <c r="B202">
+        <v>5.4016666666666602</v>
+      </c>
+      <c r="C202">
+        <v>0.145812348597918</v>
+      </c>
+      <c r="D202">
+        <v>142984.24459251799</v>
+      </c>
+      <c r="E202">
+        <v>116477.73652978201</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>213.68948570964599</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>26292.818577025901</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0.166336643456342</v>
+      </c>
+      <c r="M202">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>10.6</v>
+      </c>
+      <c r="B203">
+        <v>5.4531111111111104</v>
+      </c>
+      <c r="C203">
+        <v>0.14720103763218401</v>
+      </c>
+      <c r="D203">
+        <v>145602.86564937801</v>
+      </c>
+      <c r="E203">
+        <v>118563.355017653</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>243.49162660322699</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>26796.019005121401</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0.16629300915002401</v>
+      </c>
+      <c r="M203">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>10.6999999999999</v>
+      </c>
+      <c r="B204">
+        <v>5.5045555555555499</v>
+      </c>
+      <c r="C204">
+        <v>0.14858972666645001</v>
+      </c>
+      <c r="D204">
+        <v>148247.09157201601</v>
+      </c>
+      <c r="E204">
+        <v>120666.29513064399</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>276.80733585099603</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>27303.989105521101</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0.16624986937119099</v>
+      </c>
+      <c r="M204">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>10.8</v>
+      </c>
+      <c r="B205">
+        <v>5.556</v>
+      </c>
+      <c r="C205">
+        <v>0.14997841570071599</v>
+      </c>
+      <c r="D205">
+        <v>150917.23910634001</v>
+      </c>
+      <c r="E205">
+        <v>122786.53823630601</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>313.97199180955801</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>27816.728878225</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0.166207213914663</v>
+      </c>
+      <c r="M205">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>10.9</v>
+      </c>
+      <c r="B206">
+        <v>5.6074444444444396</v>
+      </c>
+      <c r="C206">
+        <v>0.151367104734981</v>
+      </c>
+      <c r="D206">
+        <v>153613.64910835301</v>
+      </c>
+      <c r="E206">
+        <v>124924.065904954</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>355.34488016574898</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>28334.238323233101</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0.16616503287857501</v>
+      </c>
+      <c r="M206">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>11</v>
+      </c>
+      <c r="B207">
+        <v>5.65888888888888</v>
+      </c>
+      <c r="C207">
+        <v>0.152755793769247</v>
+      </c>
+      <c r="D207">
+        <v>156336.68757461701</v>
+      </c>
+      <c r="E207">
+        <v>127078.85990560301</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>401.310228468346</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>28856.517440545402</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0.166123316652663</v>
+      </c>
+      <c r="M207">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>11.1</v>
+      </c>
+      <c r="B208">
+        <v>5.7103333333333302</v>
+      </c>
+      <c r="C208">
+        <v>0.15414448280351301</v>
+      </c>
+      <c r="D208">
+        <v>159086.74667489601</v>
+      </c>
+      <c r="E208">
+        <v>129250.902202014</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>452.27824272058001</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>29383.566230162</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0.16608205590710101</v>
+      </c>
+      <c r="M208">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>11.1999999999999</v>
+      </c>
+      <c r="B209">
+        <v>5.7617777777777697</v>
+      </c>
+      <c r="C209">
+        <v>0.15553317183777901</v>
+      </c>
+      <c r="D209">
+        <v>161864.24578325299</v>
+      </c>
+      <c r="E209">
+        <v>131440.17494885699</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>508.68614231269498</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>29915.3846920828</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0.16604124158187</v>
+      </c>
+      <c r="M209">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>11.3</v>
+      </c>
+      <c r="B210">
+        <v>5.8132222222222198</v>
+      </c>
+      <c r="C210">
+        <v>0.15692186087204499</v>
+      </c>
+      <c r="D210">
+        <v>164669.632503111</v>
+      </c>
+      <c r="E210">
+        <v>133646.660487988</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>570.99918881498002</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>30451.972826307901</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0.166000864876611</v>
+      </c>
+      <c r="M210">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>11.4</v>
+      </c>
+      <c r="B211">
+        <v>5.8646666666666603</v>
+      </c>
+      <c r="C211">
+        <v>0.15831054990631099</v>
+      </c>
+      <c r="D211">
+        <v>167503.38368191099</v>
+      </c>
+      <c r="E211">
+        <v>135870.34134482199</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>639.71170425205503</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>30993.3306328371</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0.16596091724095499</v>
+      </c>
+      <c r="M211">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>11.5</v>
+      </c>
+      <c r="B212">
+        <v>5.9161111111111104</v>
+      </c>
+      <c r="C212">
+        <v>0.159699238940577</v>
+      </c>
+      <c r="D212">
+        <v>170366.006412713</v>
+      </c>
+      <c r="E212">
+        <v>138111.20022481601</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>715.34807622563596</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>31539.458111670501</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0.165921390365285</v>
+      </c>
+      <c r="M212">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>11.6</v>
+      </c>
+      <c r="B213">
+        <v>5.96755555555555</v>
+      </c>
+      <c r="C213">
+        <v>0.161087927974843</v>
+      </c>
+      <c r="D213">
+        <v>173258.039023928</v>
+      </c>
+      <c r="E213">
+        <v>140369.22001004699</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>798.46375107329902</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>32090.3552628082</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0.16588227617192999</v>
+      </c>
+      <c r="M213">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>11.6999999999999</v>
+      </c>
+      <c r="B214">
+        <v>6.0190000000000001</v>
+      </c>
+      <c r="C214">
+        <v>0.16247661700910901</v>
+      </c>
+      <c r="D214">
+        <v>176180.052063843</v>
+      </c>
+      <c r="E214">
+        <v>142644.38375587799</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>889.64622171512099</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>32646.022086250101</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0.16584356680673901</v>
+      </c>
+      <c r="M214">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>11.8</v>
+      </c>
+      <c r="B215">
+        <v>6.0704444444444396</v>
+      </c>
+      <c r="C215">
+        <v>0.16386530604337399</v>
+      </c>
+      <c r="D215">
+        <v>179132.649292054</v>
+      </c>
+      <c r="E215">
+        <v>144936.67468773</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>989.51602232795096</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>33206.458581996303</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0.16580525463104501</v>
+      </c>
+      <c r="M215">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>11.9</v>
+      </c>
+      <c r="B216">
+        <v>6.1218888888888801</v>
+      </c>
+      <c r="C216">
+        <v>0.16525399507763999</v>
+      </c>
+      <c r="D216">
+        <v>182116.468692747</v>
+      </c>
+      <c r="E216">
+        <v>147246.07619792299</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>1098.72774477757</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>33771.664750046599</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>0.165767332213969</v>
+      </c>
+      <c r="M216">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>12</v>
+      </c>
+      <c r="B217">
+        <v>6.1733333333333302</v>
+      </c>
+      <c r="C217">
+        <v>0.166642684111906</v>
+      </c>
+      <c r="D217">
+        <v>185132.183521684</v>
+      </c>
+      <c r="E217">
+        <v>149572.57184261701</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>1217.97108866536</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>34341.640590401199</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0.16572979232507401</v>
+      </c>
+      <c r="M217">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>12.1</v>
+      </c>
+      <c r="B218">
+        <v>6.2247777777777697</v>
+      </c>
+      <c r="C218">
+        <v>0.168031373146172</v>
+      </c>
+      <c r="D218">
+        <v>188180.503387328</v>
+      </c>
+      <c r="E218">
+        <v>151916.145338826</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>1347.9719454418901</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>34916.386103060002</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0.165692627927333</v>
+      </c>
+      <c r="M218">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>12.1999999999999</v>
+      </c>
+      <c r="B219">
+        <v>6.2762222222222199</v>
+      </c>
+      <c r="C219">
+        <v>0.16942006218043801</v>
+      </c>
+      <c r="D219">
+        <v>191262.175346415</v>
+      </c>
+      <c r="E219">
+        <v>154276.780561511</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>1489.4934968803</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>35495.901288023</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0.16565583217039301</v>
+      </c>
+      <c r="M219">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>12.3</v>
+      </c>
+      <c r="B220">
+        <v>6.3276666666666603</v>
+      </c>
+      <c r="C220">
+        <v>0.17080875121470401</v>
+      </c>
+      <c r="D220">
+        <v>194377.98496800699</v>
+      </c>
+      <c r="E220">
+        <v>156654.46154075701</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>1643.3372819605299</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>36080.186145290303</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0.165619398384138</v>
+      </c>
+      <c r="M220">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>12.4</v>
+      </c>
+      <c r="B221">
+        <v>6.3791111111111096</v>
+      </c>
+      <c r="C221">
+        <v>0.17219744024896999</v>
+      </c>
+      <c r="D221">
+        <v>197528.75729383799</v>
+      </c>
+      <c r="E221">
+        <v>159049.17245900899</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>1810.34415996744</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>36669.2406748617</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0.165583320072519</v>
+      </c>
+      <c r="M221">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>12.5</v>
+      </c>
+      <c r="B222">
+        <v>6.43055555555555</v>
+      </c>
+      <c r="C222">
+        <v>0.173586129283236</v>
+      </c>
+      <c r="D222">
+        <v>200715.35760518999</v>
+      </c>
+      <c r="E222">
+        <v>161460.89764839699</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>1991.3950800551199</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>37263.0648767374</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0.16554759090764301</v>
+      </c>
+      <c r="M222">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>12.6</v>
+      </c>
+      <c r="B223">
+        <v>6.4820000000000002</v>
+      </c>
+      <c r="C223">
+        <v>0.174974818317502</v>
+      </c>
+      <c r="D223">
+        <v>203938.69190719299</v>
+      </c>
+      <c r="E223">
+        <v>163889.621588112</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>2187.4115681643498</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>37861.658750917297</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0.16551220472410599</v>
+      </c>
+      <c r="M223">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>12.6999999999999</v>
+      </c>
+      <c r="B224">
+        <v>6.5334444444444397</v>
+      </c>
+      <c r="C224">
+        <v>0.17636350735176701</v>
+      </c>
+      <c r="D224">
+        <v>207199.70706796</v>
+      </c>
+      <c r="E224">
+        <v>166335.32890185999</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>2399.3558686984702</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>38465.022297401498</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0.16547715551357001</v>
+      </c>
+      <c r="M224">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>12.8</v>
+      </c>
+      <c r="B225">
+        <v>6.5848888888888801</v>
+      </c>
+      <c r="C225">
+        <v>0.17775219638603301</v>
+      </c>
+      <c r="D225">
+        <v>210499.390605558</v>
+      </c>
+      <c r="E225">
+        <v>168798.00435537699</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>2628.2307339908598</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>39073.1555161898</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0.16544243741954801</v>
+      </c>
+      <c r="M225">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>12.9</v>
+      </c>
+      <c r="B226">
+        <v>6.6363333333333303</v>
+      </c>
+      <c r="C226">
+        <v>0.17914088542029899</v>
+      </c>
+      <c r="D226">
+        <v>213838.77019732801</v>
+      </c>
+      <c r="E226">
+        <v>171277.63285400401</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>2875.0789360417498</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>39686.058407282399</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0.16540804473241599</v>
+      </c>
+      <c r="M226">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>13</v>
+      </c>
+      <c r="B227">
+        <v>6.6877777777777698</v>
+      </c>
+      <c r="C227">
+        <v>0.18052957445456499</v>
+      </c>
+      <c r="D227">
+        <v>217218.913082663</v>
+      </c>
+      <c r="E227">
+        <v>173774.19944032401</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>3140.9826716596399</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>40303.7309706792</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0.165373971884614</v>
+      </c>
+      <c r="M227">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>13.1</v>
+      </c>
+      <c r="B228">
+        <v>6.73922222222222</v>
+      </c>
+      <c r="C228">
+        <v>0.181918263488831</v>
+      </c>
+      <c r="D228">
+        <v>220640.92562518301</v>
+      </c>
+      <c r="E228">
+        <v>176287.689291855</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>3427.0631269481501</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>40926.173206380197</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0.16534021344604999</v>
+      </c>
+      <c r="M228">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>13.1999999999999</v>
+      </c>
+      <c r="B229">
+        <v>6.7906666666666604</v>
+      </c>
+      <c r="C229">
+        <v>0.18330695252309701</v>
+      </c>
+      <c r="D229">
+        <v>224105.95337216699</v>
+      </c>
+      <c r="E229">
+        <v>178818.087718803</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>3734.4805389784301</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>41553.385114385499</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0.16530676411967499</v>
+      </c>
+      <c r="M229">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>13.3</v>
+      </c>
+      <c r="B230">
+        <v>6.8421111111111097</v>
+      </c>
+      <c r="C230">
+        <v>0.18469564155736301</v>
+      </c>
+      <c r="D230">
+        <v>227615.181976725</v>
+      </c>
+      <c r="E230">
+        <v>181365.380161865</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>4064.4351201652698</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>42185.366694694902</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0.165273618737247</v>
+      </c>
+      <c r="M230">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>13.4</v>
+      </c>
+      <c r="B231">
+        <v>6.8935555555555501</v>
+      </c>
+      <c r="C231">
+        <v>0.18608433059162899</v>
+      </c>
+      <c r="D231">
+        <v>231169.83931443701</v>
+      </c>
+      <c r="E231">
+        <v>183929.55219008701</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>4418.1691770406997</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>42822.117947308601</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0.165240772255248</v>
+      </c>
+      <c r="M231">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>13.5</v>
+      </c>
+      <c r="B232">
+        <v>6.9450000000000003</v>
+      </c>
+      <c r="C232">
+        <v>0.18747301962589499</v>
+      </c>
+      <c r="D232">
+        <v>234771.199021593</v>
+      </c>
+      <c r="E232">
+        <v>186510.589498774</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>4796.9706505914901</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>43463.638872226496</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0.165208219750966</v>
+      </c>
+      <c r="M232">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>13.6</v>
+      </c>
+      <c r="B233">
+        <v>6.9964444444444398</v>
+      </c>
+      <c r="C233">
+        <v>0.18886170866016</v>
+      </c>
+      <c r="D233">
+        <v>238420.585508794</v>
+      </c>
+      <c r="E233">
+        <v>189108.477907447</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>5202.1781318982603</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>44109.929469448703</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0.16517595641872901</v>
+      </c>
+      <c r="M233">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>13.6999999999999</v>
+      </c>
+      <c r="B234">
+        <v>7.0478888888888802</v>
+      </c>
+      <c r="C234">
+        <v>0.190250397694426</v>
+      </c>
+      <c r="D234">
+        <v>242119.38027527501</v>
+      </c>
+      <c r="E234">
+        <v>191723.203357847</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>5635.1871784528003</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>44760.989738974997</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0.16514397756627699</v>
+      </c>
+      <c r="M234">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>13.8</v>
+      </c>
+      <c r="B235">
+        <v>7.0993333333333304</v>
+      </c>
+      <c r="C235">
+        <v>0.19163908672869201</v>
+      </c>
+      <c r="D235">
+        <v>245869.02909118301</v>
+      </c>
+      <c r="E235">
+        <v>194354.751911992</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>6097.45749838544</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>45416.819680805602</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0.165112278611284</v>
+      </c>
+      <c r="M235">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>13.9</v>
+      </c>
+      <c r="B236">
+        <v>7.1507777777777699</v>
+      </c>
+      <c r="C236">
+        <v>0.19302777576295799</v>
+      </c>
+      <c r="D236">
+        <v>249671.04936037899</v>
+      </c>
+      <c r="E236">
+        <v>197003.10975027</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>6590.5203151690703</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>46077.419294940402</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0.165080855077996</v>
+      </c>
+      <c r="M236">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>14</v>
+      </c>
+      <c r="B237">
+        <v>7.2022222222222201</v>
+      </c>
+      <c r="C237">
+        <v>0.19441646479722399</v>
+      </c>
+      <c r="D237">
+        <v>253527.036761884</v>
+      </c>
+      <c r="E237">
+        <v>199668.26316958299</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>7115.9850109222798</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>46742.788581379398</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0.165049702594007</v>
+      </c>
+      <c r="M237">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>14.1</v>
+      </c>
+      <c r="B238">
+        <v>7.2536666666666596</v>
+      </c>
+      <c r="C238">
+        <v>0.19580515383149</v>
+      </c>
+      <c r="D238">
+        <v>257438.67012866499</v>
+      </c>
+      <c r="E238">
+        <v>202350.198581529</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>7675.5440070130599</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>47412.927540122699</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>0.165018816887151</v>
+      </c>
+      <c r="M238">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>14.2</v>
+      </c>
+      <c r="B239">
+        <v>7.3051111111111098</v>
+      </c>
+      <c r="C239">
+        <v>0.197193842865756</v>
+      </c>
+      <c r="D239">
+        <v>261407.71348582199</v>
+      </c>
+      <c r="E239">
+        <v>205048.90251062799</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>8270.97480402361</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>48087.836171170202</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0.16498819378250601</v>
+      </c>
+      <c r="M239">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>14.3</v>
+      </c>
+      <c r="B240">
+        <v>7.3565555555555502</v>
+      </c>
+      <c r="C240">
+        <v>0.19858253190002201</v>
+      </c>
+      <c r="D240">
+        <v>265436.01425311202</v>
+      </c>
+      <c r="E240">
+        <v>207764.36159258499</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>8904.1381860055208</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>48767.5144745219</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0.16495782919951399</v>
+      </c>
+      <c r="M240">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>14.4</v>
+      </c>
+      <c r="B241">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="C241">
+        <v>0.19997122093428801</v>
+      </c>
+      <c r="D241">
+        <v>269525.49682268797</v>
+      </c>
+      <c r="E241">
+        <v>210496.56257259299</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>9576.97179991761</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>49451.962450177802</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0.16492771914919899</v>
+      </c>
+      <c r="M241">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>14.5</v>
+      </c>
+      <c r="B242">
+        <v>7.4594444444444399</v>
+      </c>
+      <c r="C242">
+        <v>0.20135990996855299</v>
+      </c>
+      <c r="D242">
+        <v>273678.15104223503</v>
+      </c>
+      <c r="E242">
+        <v>213245.492303676</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>10291.478640421399</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>50141.180098137898</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0.16489785973149099</v>
+      </c>
+      <c r="M242">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>14.6</v>
+      </c>
+      <c r="B243">
+        <v>7.5108888888888803</v>
+      </c>
+      <c r="C243">
+        <v>0.202748599002819</v>
+      </c>
+      <c r="D243">
+        <v>277896.01554470701</v>
+      </c>
+      <c r="E243">
+        <v>216011.137745063</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>11049.710381241101</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>50835.1674184023</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>0.164868247132646</v>
+      </c>
+      <c r="M243">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>14.7</v>
+      </c>
+      <c r="B244">
+        <v>7.5623333333333296</v>
+      </c>
+      <c r="C244">
+        <v>0.204137288037085</v>
+      </c>
+      <c r="D244">
+        <v>282181.156337886</v>
+      </c>
+      <c r="E244">
+        <v>218793.485960605</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>11853.74596631</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>51533.924410970802</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0.16483887762275201</v>
+      </c>
+      <c r="M244">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>14.8</v>
+      </c>
+      <c r="B245">
+        <v>7.61377777777777</v>
+      </c>
+      <c r="C245">
+        <v>0.20552597707135101</v>
+      </c>
+      <c r="D245">
+        <v>286535.64156316099</v>
+      </c>
+      <c r="E245">
+        <v>221592.52411721699</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>12705.6663701004</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>52237.451075843703</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0.164809747553332</v>
+      </c>
+      <c r="M245">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>14.9</v>
+      </c>
+      <c r="B246">
+        <v>7.6652222222222202</v>
+      </c>
+      <c r="C246">
+        <v>0.20691466610561701</v>
+      </c>
+      <c r="D246">
+        <v>290961.51381335797</v>
+      </c>
+      <c r="E246">
+        <v>224408.23948336201</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>13607.526916975101</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>52945.747413020697</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0.16478085335502601</v>
+      </c>
+      <c r="M246">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>15</v>
+      </c>
+      <c r="B247">
+        <v>7.7166666666666597</v>
+      </c>
+      <c r="C247">
+        <v>0.20830335513988299</v>
+      </c>
+      <c r="D247">
+        <v>295460.76182388101</v>
+      </c>
+      <c r="E247">
+        <v>227240.61942756499</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>14561.328973813899</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>53658.813422501902</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0.164752191535354</v>
+      </c>
+      <c r="M247">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>15.1</v>
+      </c>
+      <c r="B248">
+        <v>7.7681111111111099</v>
+      </c>
+      <c r="C248">
+        <v>0.20969204417414899</v>
+      </c>
+      <c r="D248">
+        <v>300035.29368143302</v>
+      </c>
+      <c r="E248">
+        <v>230089.65141695499</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>15568.993160190301</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>54376.649104287397</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0.164723758676559</v>
+      </c>
+      <c r="M248">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>15.2</v>
+      </c>
+      <c r="B249">
+        <v>7.8195555555555503</v>
+      </c>
+      <c r="C249">
+        <v>0.211080733208415</v>
+      </c>
+      <c r="D249">
+        <v>304686.91389601002</v>
+      </c>
+      <c r="E249">
+        <v>232955.32301584099</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>16632.336421791701</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>55099.254458377101</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0.16469555143352299</v>
+      </c>
+      <c r="M249">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>15.3</v>
+      </c>
+      <c r="B250">
+        <v>7.8710000000000004</v>
+      </c>
+      <c r="C250">
+        <v>0.21246942224268101</v>
+      </c>
+      <c r="D250">
+        <v>309417.30672695203</v>
+      </c>
+      <c r="E250">
+        <v>235837.62188431801</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>17753.055357862901</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>55826.629484771001</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0.16466756653175599</v>
+      </c>
+      <c r="M250">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>15.4</v>
+      </c>
+      <c r="B251">
+        <v>7.92244444444444</v>
+      </c>
+      <c r="C251">
+        <v>0.21385811127694601</v>
+      </c>
+      <c r="D251">
+        <v>314228.028024033</v>
+      </c>
+      <c r="E251">
+        <v>238736.53577690301</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>18932.718063660501</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>56558.774183469097</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0.16463980076545101</v>
+      </c>
+      <c r="M251">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>15.5</v>
+      </c>
+      <c r="B252">
+        <v>7.9738888888888804</v>
+      </c>
+      <c r="C252">
+        <v>0.21524680031121199</v>
+      </c>
+      <c r="D252">
+        <v>319120.50753321801</v>
+      </c>
+      <c r="E252">
+        <v>241652.05254119501</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>20172.7664375518</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>57295.688554471497</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0.164612250995606</v>
+      </c>
+      <c r="M252">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>15.6</v>
+      </c>
+      <c r="B253">
+        <v>8.0253333333333305</v>
+      </c>
+      <c r="C253">
+        <v>0.21663548934547799</v>
+      </c>
+      <c r="D253">
+        <v>324096.063131481</v>
+      </c>
+      <c r="E253">
+        <v>244584.160116566</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>21474.530417137001</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>58037.3725977781</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0.164584914148212</v>
+      </c>
+      <c r="M253">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>15.7</v>
+      </c>
+      <c r="B254">
+        <v>8.0767777777777692</v>
+      </c>
+      <c r="C254">
+        <v>0.218024178379744</v>
+      </c>
+      <c r="D254">
+        <v>329155.92781940702</v>
+      </c>
+      <c r="E254">
+        <v>247532.84653287899</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>22839.254973139399</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>58783.826313388898</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0.16455778721249401</v>
+      </c>
+      <c r="M254">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>15.8</v>
+      </c>
+      <c r="B255">
+        <v>8.1282222222222202</v>
+      </c>
+      <c r="C255">
+        <v>0.21941286741401</v>
+      </c>
+      <c r="D255">
+        <v>334301.28955354402</v>
+      </c>
+      <c r="E255">
+        <v>250498.099909229</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>24268.139943010901</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>59535.049701303898</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0.16453086723922</v>
+      </c>
+      <c r="M255">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>15.9</v>
+      </c>
+      <c r="B256">
+        <v>8.1796666666666606</v>
+      </c>
+      <c r="C256">
+        <v>0.22080155644827601</v>
+      </c>
+      <c r="D256">
+        <v>339533.34319529199</v>
+      </c>
+      <c r="E256">
+        <v>253479.90845271599</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>25762.391981052901</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>60291.042761523197</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0.16450415133905699</v>
+      </c>
+      <c r="M256">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>16</v>
+      </c>
+      <c r="B257">
+        <v>8.2311111111111099</v>
+      </c>
+      <c r="C257">
+        <v>0.22219024548254199</v>
+      </c>
+      <c r="D257">
+        <v>344853.35305152897</v>
+      </c>
+      <c r="E257">
+        <v>256478.26045723</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>27323.287100252099</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>61051.805494046603</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0.164477636680989</v>
+      </c>
+      <c r="M257">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B258">
+        <v>8.2825555555555503</v>
+      </c>
+      <c r="C258">
+        <v>0.22357893451680799</v>
+      </c>
+      <c r="D258">
+        <v>350262.72374893998</v>
+      </c>
+      <c r="E258">
+        <v>259493.14430227701</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>28952.241547788599</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>61817.337898874299</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>0.16445132049077901</v>
+      </c>
+      <c r="M258">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>16.2</v>
+      </c>
+      <c r="B259">
+        <v>8.3339999999999996</v>
+      </c>
+      <c r="C259">
+        <v>0.224967623551074</v>
+      </c>
+      <c r="D259">
+        <v>355763.076579455</v>
+      </c>
+      <c r="E259">
+        <v>262524.54845181399</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>30650.888151635299</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>62587.6399760063</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0.16442520004948399</v>
+      </c>
+      <c r="M259">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>16.3</v>
+      </c>
+      <c r="B260">
+        <v>8.38544444444444</v>
+      </c>
+      <c r="C260">
+        <v>0.226356312585339</v>
+      </c>
+      <c r="D260">
+        <v>361356.32802705298</v>
+      </c>
+      <c r="E260">
+        <v>265572.46145311202</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>32421.154848498201</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>63362.711725442401</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0.16439927269202101</v>
+      </c>
+      <c r="M260">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>16.399999999999899</v>
+      </c>
+      <c r="B261">
+        <v>8.4368888888888804</v>
+      </c>
+      <c r="C261">
+        <v>0.22774500161960501</v>
+      </c>
+      <c r="D261">
+        <v>367044.76696744002</v>
+      </c>
+      <c r="E261">
+        <v>268636.87193564698</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>34265.341884610301</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>64142.5531471828</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0.16437353580577299</v>
+      </c>
+      <c r="M261">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>16.5</v>
+      </c>
+      <c r="B262">
+        <v>8.4883333333333297</v>
+      </c>
+      <c r="C262">
+        <v>0.22913369065387101</v>
+      </c>
+      <c r="D262">
+        <v>372831.12703167199</v>
+      </c>
+      <c r="E262">
+        <v>271717.76861000003</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>36186.194180444101</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>64927.164241227299</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0.16434798682924201</v>
+      </c>
+      <c r="M262">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="B263">
+        <v>8.5397777777777701</v>
+      </c>
+      <c r="C263">
+        <v>0.23052237968813699</v>
+      </c>
+      <c r="D263">
+        <v>378718.650830645</v>
+      </c>
+      <c r="E263">
+        <v>274815.14026679198</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>38186.965556276802</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>65716.545007576104</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0.16432262325074801</v>
+      </c>
+      <c r="M263">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>16.7</v>
+      </c>
+      <c r="B264">
+        <v>8.5912222222222194</v>
+      </c>
+      <c r="C264">
+        <v>0.231911068722403</v>
+      </c>
+      <c r="D264">
+        <v>384711.14311822201</v>
+      </c>
+      <c r="E264">
+        <v>277928.975775628</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>40271.471896364499</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>66510.695446229205</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0.164297442607161</v>
+      </c>
+      <c r="M264">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>16.8</v>
+      </c>
+      <c r="B265">
+        <v>8.6426666666666598</v>
+      </c>
+      <c r="C265">
+        <v>0.233299757756669</v>
+      </c>
+      <c r="D265">
+        <v>390813.010480739</v>
+      </c>
+      <c r="E265">
+        <v>281059.264084069</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>42444.130839483201</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>67309.615557186393</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0.164272442482678</v>
+      </c>
+      <c r="M265">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>16.899999999999899</v>
+      </c>
+      <c r="B266">
+        <v>8.6941111111111091</v>
+      </c>
+      <c r="C266">
+        <v>0.23468844679093501</v>
+      </c>
+      <c r="D266">
+        <v>397029.28572630702</v>
+      </c>
+      <c r="E266">
+        <v>284205.99421661801</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>44709.986169240903</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>68113.3053404479</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0.16424762050764</v>
+      </c>
+      <c r="M266">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>17</v>
+      </c>
+      <c r="B267">
+        <v>8.7455555555555495</v>
+      </c>
+      <c r="C267">
+        <v>0.23607713582520101</v>
+      </c>
+      <c r="D267">
+        <v>403365.63575446198</v>
+      </c>
+      <c r="E267">
+        <v>287369.15527373197</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>47074.715684716299</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>68921.764796013595</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0.16422297435737901</v>
+      </c>
+      <c r="M267">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B268">
+        <v>8.7970000000000006</v>
+      </c>
+      <c r="C268">
+        <v>0.23746582485946699</v>
+      </c>
+      <c r="D268">
+        <v>409828.35226719402</v>
+      </c>
+      <c r="E268">
+        <v>290548.73643084097</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>49544.621912469302</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>69734.993923883507</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>0.16419850175110401</v>
+      </c>
+      <c r="M268">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>17.2</v>
+      </c>
+      <c r="B269">
+        <v>8.8484444444444392</v>
+      </c>
+      <c r="C269">
+        <v>0.238854513893732</v>
+      </c>
+      <c r="D269">
+        <v>416424.32519905001</v>
+      </c>
+      <c r="E269">
+        <v>293744.72693739901</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>52126.605537593001</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>70552.992724057694</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0.16417420045082401</v>
+      </c>
+      <c r="M269">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>17.3</v>
+      </c>
+      <c r="B270">
+        <v>8.8998888888888903</v>
+      </c>
+      <c r="C270">
+        <v>0.240243202927998</v>
+      </c>
+      <c r="D270">
+        <v>423160.99917352299</v>
+      </c>
+      <c r="E270">
+        <v>296957.11611594498</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>54828.121861041902</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>71375.761196535997</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0.16415006826029499</v>
+      </c>
+      <c r="M270">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>17.399999999999899</v>
+      </c>
+      <c r="B271">
+        <v>8.9513333333333307</v>
+      </c>
+      <c r="C271">
+        <v>0.24163189196226401</v>
+      </c>
+      <c r="D271">
+        <v>430046.31362707203</v>
+      </c>
+      <c r="E271">
+        <v>300185.89336117997</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>57657.120924574003</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>72203.299341318605</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0.16412610302401001</v>
+      </c>
+      <c r="M271">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>17.5</v>
+      </c>
+      <c r="B272">
+        <v>9.0027777777777693</v>
+      </c>
+      <c r="C272">
+        <v>0.24302058099653001</v>
+      </c>
+      <c r="D272">
+        <v>437088.62748589797</v>
+      </c>
+      <c r="E272">
+        <v>303431.04813906201</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>60621.972188430198</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>73035.607158405401</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0.16410230262620701</v>
+      </c>
+      <c r="M272">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B273">
+        <v>9.0542222222222204</v>
+      </c>
+      <c r="C273">
+        <v>0.24440927003079599</v>
+      </c>
+      <c r="D273">
+        <v>444296.62945017201</v>
+      </c>
+      <c r="E273">
+        <v>306692.56998592301</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>63731.374816452597</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>73872.684647796501</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0.16407866498991899</v>
+      </c>
+      <c r="M273">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>17.7</v>
+      </c>
+      <c r="B274">
+        <v>9.1056666666666608</v>
+      </c>
+      <c r="C274">
+        <v>0.24579795906506199</v>
+      </c>
+      <c r="D274">
+        <v>451679.23505912803</v>
+      </c>
+      <c r="E274">
+        <v>309970.44850759697</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>66994.254742039295</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>74714.531809491702</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0.16405518807604</v>
+      </c>
+      <c r="M274">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>17.8</v>
+      </c>
+      <c r="B275">
+        <v>9.1571111111111101</v>
+      </c>
+      <c r="C275">
+        <v>0.247186648099328</v>
+      </c>
+      <c r="D275">
+        <v>459245.47180486302</v>
+      </c>
+      <c r="E275">
+        <v>313264.673378559</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>70419.649782812397</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>75561.148643491193</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0.16403186988242899</v>
+      </c>
+      <c r="M275">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>17.899999999999899</v>
+      </c>
+      <c r="B276">
+        <v>9.2085555555555505</v>
+      </c>
+      <c r="C276">
+        <v>0.248575337133594</v>
+      </c>
+      <c r="D276">
+        <v>467004.35365920101</v>
+      </c>
+      <c r="E276">
+        <v>316575.234341092</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>74016.5841683131</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>76412.535149794901</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0.164008708443035</v>
+      </c>
+      <c r="M276">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>18</v>
+      </c>
+      <c r="B277">
+        <v>9.26</v>
+      </c>
+      <c r="C277">
+        <v>0.24996402616786001</v>
+      </c>
+      <c r="D277">
+        <v>474964.74649875902</v>
+      </c>
+      <c r="E277">
+        <v>319902.121204458</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>77793.933965898002</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>77268.691328402798</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0.163985701827045</v>
+      </c>
+      <c r="M277">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B278">
+        <v>9.3114444444444402</v>
+      </c>
+      <c r="C278">
+        <v>0.25135271520212499</v>
+      </c>
+      <c r="D278">
+        <v>483135.22607490502</v>
+      </c>
+      <c r="E278">
+        <v>323245.32384408597</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>81760.285051503495</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>78129.617179314897</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0.163962848138063</v>
+      </c>
+      <c r="M278">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>18.2</v>
+      </c>
+      <c r="B279">
+        <v>9.3628888888888895</v>
+      </c>
+      <c r="C279">
+        <v>0.25274140423639102</v>
+      </c>
+      <c r="D279">
+        <v>491523.93038580101</v>
+      </c>
+      <c r="E279">
+        <v>326604.832200779</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>85923.785482490901</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>78995.312702531301</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>0.16394014551330799</v>
+      </c>
+      <c r="M279">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>18.3</v>
+      </c>
+      <c r="B280">
+        <v>9.4143333333333299</v>
+      </c>
+      <c r="C280">
+        <v>0.254130093270657</v>
+      </c>
+      <c r="D280">
+        <v>500138.40856708097</v>
+      </c>
+      <c r="E280">
+        <v>329980.63627992698</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>90291.994389101907</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>79865.777898051907</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0.16391759212283799</v>
+      </c>
+      <c r="M280">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>18.399999999999899</v>
+      </c>
+      <c r="B281">
+        <v>9.4657777777777703</v>
+      </c>
+      <c r="C281">
+        <v>0.25551878230492298</v>
+      </c>
+      <c r="D281">
+        <v>508985.46871694498</v>
+      </c>
+      <c r="E281">
+        <v>333372.72615074401</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>94871.729800323606</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>80741.012765876701</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0.16389518616879101</v>
+      </c>
+      <c r="M281">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>18.5</v>
+      </c>
+      <c r="B282">
+        <v>9.5172222222222196</v>
+      </c>
+      <c r="C282">
+        <v>0.25690747133918901</v>
+      </c>
+      <c r="D282">
+        <v>518071.02739386202</v>
+      </c>
+      <c r="E282">
+        <v>336781.09194550797</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>99668.918142348499</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>81621.017306005699</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>0.16387292588465599</v>
+      </c>
+      <c r="M282">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B283">
+        <v>9.56866666666666</v>
+      </c>
+      <c r="C283">
+        <v>0.25829616037345499</v>
+      </c>
+      <c r="D283">
+        <v>527399.96384720504</v>
+      </c>
+      <c r="E283">
+        <v>340205.72385881701</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>104688.44846994799</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>82505.791518439</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0.163850809534555</v>
+      </c>
+      <c r="M283">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>18.7</v>
+      </c>
+      <c r="B284">
+        <v>9.6201111111111093</v>
+      </c>
+      <c r="C284">
+        <v>0.25968484940772102</v>
+      </c>
+      <c r="D284">
+        <v>536975.98233474803</v>
+      </c>
+      <c r="E284">
+        <v>343646.61214686598</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>109934.034784705</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>83395.335403176505</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0.163828835412551</v>
+      </c>
+      <c r="M284">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>18.8</v>
+      </c>
+      <c r="B285">
+        <v>9.6715555555555497</v>
+      </c>
+      <c r="C285">
+        <v>0.261073538441987</v>
+      </c>
+      <c r="D285">
+        <v>546801.48611513595</v>
+      </c>
+      <c r="E285">
+        <v>347103.74712672201</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>115408.090028195</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>84289.648960218197</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0.163807001841976</v>
+      </c>
+      <c r="M285">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>18.899999999999899</v>
+      </c>
+      <c r="B286">
+        <v>9.7230000000000008</v>
+      </c>
+      <c r="C286">
+        <v>0.26246222747625297</v>
+      </c>
+      <c r="D286">
+        <v>556877.46684699296</v>
+      </c>
+      <c r="E286">
+        <v>350577.11917562399</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>121111.615481805</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>85188.732189564107</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0.16378530717477199</v>
+      </c>
+      <c r="M286">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>19</v>
+      </c>
+      <c r="B287">
+        <v>9.7744444444444394</v>
+      </c>
+      <c r="C287">
+        <v>0.26385091651051801</v>
+      </c>
+      <c r="D287">
+        <v>567203.41315042297</v>
+      </c>
+      <c r="E287">
+        <v>354066.718730286</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>127044.109328922</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>86092.585091214205</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>0.163763749790859</v>
+      </c>
+      <c r="M287">
+        <v>0.1727667174725</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>101</v>
+      </c>
+      <c r="B292">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>105</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>106</v>
+      </c>
+      <c r="B297">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>107</v>
+      </c>
+      <c r="B298">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>110</v>
+      </c>
+      <c r="B301">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>111</v>
+      </c>
+      <c r="B302">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -15651,7 +23075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
